--- a/server/sample.xlsx
+++ b/server/sample.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="89">
   <si>
     <t>Core Fundamentals</t>
   </si>
@@ -177,9 +177,6 @@
   </si>
   <si>
     <t>NA</t>
-  </si>
-  <si>
-    <t>Savani Financials</t>
   </si>
   <si>
     <t>Tech Sector</t>
@@ -1257,7 +1254,7 @@
     <cellStyle name="Comma" xfId="4" builtinId="3"/>
     <cellStyle name="Comma [0]" xfId="5" builtinId="6"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="30">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -1446,6 +1443,70 @@
       </font>
       <fill>
         <patternFill>
+          <bgColor rgb="FFB6D7A8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <strike val="0"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFF4CCCC"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <strike val="0"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <strike val="0"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFEA9999"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <u val="none"/>
+        <strike val="0"/>
+        <sz val="10"/>
+        <name val="Arial"/>
+        <color rgb="FF000000"/>
+      </font>
+      <fill>
+        <patternFill>
           <fgColor indexed="64"/>
           <bgColor rgb="FFB6D7A8"/>
         </patternFill>
@@ -1591,28 +1652,28 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Investment" displayName="Investment" ref="A2:AI35" totalsRowCount="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Investment" displayName="Investment" ref="A2:AI34" totalsRowCount="1">
   <tableColumns count="35">
     <tableColumn id="1" name="No"/>
     <tableColumn id="2" name="Particulars"/>
     <tableColumn id="3" name="Purchase Price"/>
     <tableColumn id="4" name="Qty"/>
     <tableColumn id="5" name="Investment" totalsRowFunction="custom">
-      <totalsRowFormula>E29+E25+E20+E16+E9+E3</totalsRowFormula>
+      <totalsRowFormula>E28+E24+E19+E15+E8+E3</totalsRowFormula>
     </tableColumn>
     <tableColumn id="6" name="Portfolio (%)" totalsRowFunction="custom">
-      <totalsRowFormula>E35/$E$35</totalsRowFormula>
+      <totalsRowFormula>E34/$E$34</totalsRowFormula>
     </tableColumn>
     <tableColumn id="7" name="NSE/BSE"/>
     <tableColumn id="8" name="CMP"/>
     <tableColumn id="9" name="Present value" totalsRowFunction="custom">
-      <totalsRowFormula>I29+I25+I20+I16+I9+I3</totalsRowFormula>
+      <totalsRowFormula>I28+I24+I19+I15+I8+I3</totalsRowFormula>
     </tableColumn>
     <tableColumn id="10" name="Gain/Loss" totalsRowFunction="custom">
-      <totalsRowFormula>J29+J25+J20+J16+J9+J3</totalsRowFormula>
+      <totalsRowFormula>J28+J24+J19+J15+J8+J3</totalsRowFormula>
     </tableColumn>
     <tableColumn id="11" name="Gain/Loss_x000a_(%)" totalsRowFunction="custom">
-      <totalsRowFormula>J35/E35</totalsRowFormula>
+      <totalsRowFormula>J34/E34</totalsRowFormula>
     </tableColumn>
     <tableColumn id="12" name="Market Cap"/>
     <tableColumn id="13" name="P/E (TTM)"/>
@@ -1844,14 +1905,14 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AJ970"/>
+  <dimension ref="A1:AJ969"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
       <pane xSplit="2" ySplit="2" topLeftCell="C3" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" sqref="A1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
-      <selection pane="bottomRight" activeCell="AJ4" sqref="AJ4"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6342857142857" defaultRowHeight="15.75" customHeight="1"/>
@@ -2032,7 +2093,7 @@
         <v>36</v>
       </c>
       <c r="AJ2" s="154" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:36" ht="15.75" customHeight="1">
@@ -2043,26 +2104,26 @@
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
       <c r="E3" s="19">
-        <f>SUM(E4:E8)</f>
-        <v>328450</v>
+        <f>SUM(E4:E7)</f>
+        <v>302530</v>
       </c>
       <c r="F3" s="20">
-        <f>SUM(F4:F8)</f>
-        <v>0.21285627260119502</v>
+        <f>SUM(F4:F7)</f>
+        <v>0.19940809681374166</v>
       </c>
       <c r="G3" s="21"/>
       <c r="H3" s="22"/>
       <c r="I3" s="19">
-        <f ca="1">SUM(I4:I8)</f>
-        <v>386328.70000000001</v>
+        <f ca="1">SUM(I4:I7)</f>
+        <v>370279.90000000002</v>
       </c>
       <c r="J3" s="19">
-        <f ca="1">SUM(J4:J8)</f>
-        <v>57878.699999999997</v>
+        <f ca="1">SUM(J4:J7)</f>
+        <v>67749.899999999994</v>
       </c>
       <c r="K3" s="23">
         <f ca="1">J3/E3</f>
-        <v>0.17621768914598873</v>
+        <v>0.22394440220804546</v>
       </c>
       <c r="L3" s="24"/>
       <c r="M3" s="25"/>
@@ -2104,12 +2165,12 @@
         <v>50</v>
       </c>
       <c r="E4" s="38">
-        <f t="shared" si="0" ref="E4:E8">C4*D4</f>
+        <f t="shared" si="0" ref="E4:E7">C4*D4</f>
         <v>74500</v>
       </c>
       <c r="F4" s="39">
-        <f t="shared" si="1" ref="F4:F8">E4/$E$35</f>
-        <v>0.048280689020517673</v>
+        <f t="shared" si="1" ref="F4:F7">E4/$E$34</f>
+        <v>0.049105553871099571</v>
       </c>
       <c r="G4" s="40" t="s">
         <v>39</v>
@@ -2119,11 +2180,11 @@
         <v>1700.1500000000001</v>
       </c>
       <c r="I4" s="38">
-        <f ca="1" t="shared" si="2" ref="I4:I8">H4*D4</f>
+        <f ca="1" t="shared" si="2" ref="I4:I7">H4*D4</f>
         <v>85007.5</v>
       </c>
       <c r="J4" s="42">
-        <f ca="1" t="shared" si="3" ref="J4:J8">I4-E4</f>
+        <f ca="1" t="shared" si="3" ref="J4:J7">I4-E4</f>
         <v>10507.5</v>
       </c>
       <c r="K4" s="43">
@@ -2183,19 +2244,19 @@
         <v>0.10</v>
       </c>
       <c r="AC4" s="51">
-        <f ca="1" t="shared" si="4" ref="AC4:AC8">L4/O4</f>
+        <f ca="1" t="shared" si="4" ref="AC4:AC7">L4/O4</f>
         <v>4.0398641635572528</v>
       </c>
       <c r="AD4" s="52">
-        <f t="shared" si="5" ref="AD4:AD8">P4/T4</f>
+        <f t="shared" si="5" ref="AD4:AD7">P4/T4</f>
         <v>-26.803163444639718</v>
       </c>
       <c r="AE4" s="53">
-        <f t="shared" si="6" ref="AE4:AE8">R4/T4</f>
+        <f t="shared" si="6" ref="AE4:AE7">R4/T4</f>
         <v>-17.369068541300528</v>
       </c>
       <c r="AF4" s="54">
-        <f ca="1" t="shared" si="7" ref="AF4:AF8">H4/X4</f>
+        <f ca="1" t="shared" si="7" ref="AF4:AF7">H4/X4</f>
         <v>2.4542396858850362</v>
       </c>
       <c r="AG4" s="45" t="s">
@@ -2204,7 +2265,7 @@
       <c r="AH4" s="45"/>
       <c r="AI4" s="55"/>
       <c r="AJ4" s="155" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:36" ht="15.75" customHeight="1">
@@ -2226,7 +2287,7 @@
       </c>
       <c r="F5" s="60">
         <f t="shared" si="1"/>
-        <v>0.062855624538255161</v>
+        <v>0.063929498925610034</v>
       </c>
       <c r="G5" s="61" t="s">
         <v>42</v>
@@ -2323,7 +2384,7 @@
         <v>43</v>
       </c>
       <c r="AJ5" s="155" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="6" spans="1:36" ht="15.75" customHeight="1">
@@ -2345,7 +2406,7 @@
       </c>
       <c r="F6" s="39">
         <f t="shared" si="1"/>
-        <v>0.042461083820460641</v>
+        <v>0.043186522008516026</v>
       </c>
       <c r="G6" s="40">
         <v>532174</v>
@@ -2440,7 +2501,7 @@
       <c r="AH6" s="76"/>
       <c r="AI6" s="77"/>
       <c r="AJ6" s="155" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="7" spans="1:36" ht="15.75" customHeight="1">
@@ -2462,7 +2523,7 @@
       </c>
       <c r="F7" s="60">
         <f t="shared" si="1"/>
-        <v>0.042461083820460641</v>
+        <v>0.043186522008516026</v>
       </c>
       <c r="G7" s="79">
         <v>544252</v>
@@ -2555,3320 +2616,3233 @@
       <c r="AH7" s="65"/>
       <c r="AI7" s="83"/>
       <c r="AJ7" s="155" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="8" spans="1:36" ht="15.75">
-      <c r="A8" s="35">
-        <v>5</v>
-      </c>
-      <c r="B8" s="84" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A8" s="16"/>
+      <c r="B8" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C8" s="37">
-        <v>24</v>
-      </c>
-      <c r="D8" s="37">
-        <v>1080</v>
-      </c>
-      <c r="E8" s="38">
-        <f t="shared" si="0"/>
-        <v>25920</v>
-      </c>
-      <c r="F8" s="39">
-        <f t="shared" si="1"/>
-        <v>0.016797791401500915</v>
-      </c>
-      <c r="G8" s="85">
-        <v>511577</v>
-      </c>
-      <c r="H8" s="41">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""511577"")"),14.86)</f>
-        <v>14.859999999999999</v>
-      </c>
-      <c r="I8" s="38">
-        <f t="shared" ca="1" si="2"/>
-        <v>16048.799999999999</v>
-      </c>
-      <c r="J8" s="80">
-        <f t="shared" ca="1" si="3"/>
-        <v>-9871.2000000000007</v>
-      </c>
-      <c r="K8" s="43">
-        <f ca="1">J8/E8</f>
-        <v>-0.38083333333333336</v>
-      </c>
-      <c r="L8" s="44" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""511577"",""marketcap"")/10^7"),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="M8" s="45" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""511577"",""PE"")"),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N8" s="45" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""511577"",""EPS"")"),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="O8" s="86"/>
-      <c r="P8" s="45"/>
-      <c r="Q8" s="45"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="45"/>
-      <c r="T8" s="45"/>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="87"/>
-      <c r="Y8" s="45"/>
-      <c r="Z8" s="45"/>
-      <c r="AA8" s="45"/>
-      <c r="AB8" s="45"/>
-      <c r="AC8" s="51" t="e">
-        <f t="shared" ca="1" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AD8" s="75" t="e">
-        <f t="shared" si="5"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE8" s="75" t="e">
-        <f t="shared" si="6"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AF8" s="54" t="e">
-        <f t="shared" ca="1" si="7"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AG8" s="45" t="s">
-        <v>46</v>
-      </c>
-      <c r="AH8" s="45"/>
-      <c r="AI8" s="55"/>
-      <c r="AJ8" s="155" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="9" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="19">
-        <f t="shared" si="8" ref="E9:F9">SUM(E10:E15)</f>
+      <c r="C8" s="18"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="19">
+        <f t="shared" si="8" ref="E8:F8">SUM(E9:E14)</f>
         <v>337820</v>
       </c>
-      <c r="F9" s="20">
+      <c r="F8" s="20">
         <f t="shared" si="8"/>
-        <v>0.21892862234780242</v>
-      </c>
-      <c r="G9" s="21"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="19">
-        <f ca="1" t="shared" si="9" ref="I9:J9">SUM(I10:I15)</f>
+        <v>0.2226689692447632</v>
+      </c>
+      <c r="G8" s="21"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="19">
+        <f ca="1" t="shared" si="9" ref="I8:J8">SUM(I9:I14)</f>
         <v>319697.29999999999</v>
       </c>
-      <c r="J9" s="19">
+      <c r="J8" s="19">
         <f t="shared" ca="1" si="9"/>
         <v>-18122.700000000004</v>
       </c>
-      <c r="K9" s="23">
-        <f ca="1">J9/E9</f>
+      <c r="K8" s="23">
+        <f ca="1">J8/E8</f>
         <v>-0.053646024510094148</v>
       </c>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
-      <c r="N9" s="25"/>
-      <c r="O9" s="26"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="27"/>
-      <c r="U9" s="27"/>
-      <c r="V9" s="27"/>
-      <c r="W9" s="27"/>
-      <c r="X9" s="26"/>
-      <c r="Y9" s="29"/>
-      <c r="Z9" s="29"/>
-      <c r="AA9" s="29"/>
-      <c r="AB9" s="28"/>
-      <c r="AC9" s="30"/>
-      <c r="AD9" s="31"/>
-      <c r="AE9" s="31"/>
-      <c r="AF9" s="32"/>
-      <c r="AG9" s="33"/>
-      <c r="AH9" s="33"/>
-      <c r="AI9" s="34"/>
-      <c r="AJ9" s="155"/>
-    </row>
-    <row r="10" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A10" s="35">
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
+      <c r="N8" s="25"/>
+      <c r="O8" s="26"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="28"/>
+      <c r="R8" s="26"/>
+      <c r="S8" s="28"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="27"/>
+      <c r="V8" s="27"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="26"/>
+      <c r="Y8" s="29"/>
+      <c r="Z8" s="29"/>
+      <c r="AA8" s="29"/>
+      <c r="AB8" s="28"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="31"/>
+      <c r="AE8" s="31"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="33"/>
+      <c r="AH8" s="33"/>
+      <c r="AI8" s="34"/>
+      <c r="AJ8" s="155"/>
+    </row>
+    <row r="9" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A9" s="35">
         <v>1</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B9" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="37">
+        <v>1151</v>
+      </c>
+      <c r="D9" s="37">
+        <v>50</v>
+      </c>
+      <c r="E9" s="38">
+        <f t="shared" si="10" ref="E9:E14">C9*D9</f>
+        <v>57550</v>
+      </c>
+      <c r="F9" s="39">
+        <f t="shared" si="11" ref="F9:F14">E9/$E$34</f>
+        <v>0.037933216446735307</v>
+      </c>
+      <c r="G9" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="37">
-        <v>1151</v>
-      </c>
-      <c r="D10" s="37">
-        <v>50</v>
-      </c>
-      <c r="E10" s="38">
-        <f t="shared" si="10" ref="E10:E15">C10*D10</f>
-        <v>57550</v>
-      </c>
-      <c r="F10" s="39">
-        <f t="shared" si="11" ref="F10:F15">E10/$E$35</f>
-        <v>0.037296022189675059</v>
-      </c>
-      <c r="G10" s="40" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="41">
+      <c r="H9" s="41">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""AFFLE"")"),1459.6)</f>
         <v>1459.5999999999999</v>
       </c>
-      <c r="I10" s="38">
-        <f ca="1" t="shared" si="12" ref="I10:I15">H10*D10</f>
+      <c r="I9" s="38">
+        <f ca="1" t="shared" si="12" ref="I9:I14">H9*D9</f>
         <v>72980</v>
       </c>
-      <c r="J10" s="42">
-        <f ca="1" t="shared" si="13" ref="J10:J15">I10-E10</f>
+      <c r="J9" s="42">
+        <f ca="1" t="shared" si="13" ref="J9:J14">I9-E9</f>
         <v>15430</v>
       </c>
-      <c r="K10" s="43">
-        <f ca="1">J10/E10</f>
+      <c r="K9" s="43">
+        <f ca="1">J9/E9</f>
         <v>0.26811468288444829</v>
       </c>
-      <c r="L10" s="44">
+      <c r="L9" s="44">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""AFFLE"",""marketcap"")/10^7"),20489.4849612)</f>
         <v>20489.4849612</v>
       </c>
-      <c r="M10" s="45">
+      <c r="M9" s="45">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""AFFLE"",""PE"")"),55.53)</f>
         <v>55.530000000000001</v>
       </c>
-      <c r="N10" s="45">
+      <c r="N9" s="45">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""AFFLE"",""EPS"")"),26.11)</f>
         <v>26.109999999999999</v>
       </c>
-      <c r="O10" s="46">
+      <c r="O9" s="46">
         <v>2067</v>
       </c>
-      <c r="P10" s="47">
+      <c r="P9" s="47">
         <v>412</v>
       </c>
-      <c r="Q10" s="48">
+      <c r="Q9" s="48">
         <v>0.20</v>
       </c>
-      <c r="R10" s="46">
+      <c r="R9" s="46">
         <v>343</v>
       </c>
-      <c r="S10" s="48">
+      <c r="S9" s="48">
         <v>0.17</v>
       </c>
-      <c r="T10" s="47">
+      <c r="T9" s="47">
         <v>262</v>
       </c>
-      <c r="U10" s="47">
+      <c r="U9" s="47">
         <v>902</v>
       </c>
-      <c r="V10" s="88">
+      <c r="V9" s="88">
         <v>-281</v>
       </c>
-      <c r="W10" s="47">
+      <c r="W9" s="47">
         <v>0</v>
       </c>
-      <c r="X10" s="46">
+      <c r="X9" s="46">
         <v>183</v>
       </c>
-      <c r="Y10" s="50">
+      <c r="Y9" s="50">
         <v>0.52780000000000005</v>
       </c>
-      <c r="Z10" s="50">
+      <c r="Z9" s="50">
         <v>0.1975</v>
       </c>
-      <c r="AA10" s="50">
+      <c r="AA9" s="50">
         <v>0.30159999999999998</v>
       </c>
-      <c r="AB10" s="48">
+      <c r="AB9" s="48">
         <v>0.02</v>
       </c>
-      <c r="AC10" s="51">
-        <f ca="1" t="shared" si="14" ref="AC10:AC15">L10/O10</f>
+      <c r="AC9" s="51">
+        <f ca="1" t="shared" si="14" ref="AC9:AC14">L9/O9</f>
         <v>9.9126680992743097</v>
       </c>
-      <c r="AD10" s="75">
-        <f t="shared" si="15" ref="AD10:AD15">P10/T10</f>
+      <c r="AD9" s="75">
+        <f t="shared" si="15" ref="AD9:AD14">P9/T9</f>
         <v>1.5725190839694656</v>
       </c>
-      <c r="AE10" s="75">
-        <f t="shared" si="16" ref="AE10:AE15">R10/T10</f>
+      <c r="AE9" s="75">
+        <f t="shared" si="16" ref="AE9:AE14">R9/T9</f>
         <v>1.3091603053435115</v>
       </c>
-      <c r="AF10" s="54">
-        <f ca="1" t="shared" si="17" ref="AF10:AF15">H10/X10</f>
+      <c r="AF9" s="54">
+        <f ca="1" t="shared" si="17" ref="AF9:AF14">H9/X9</f>
         <v>7.9759562841530052</v>
       </c>
-      <c r="AG10" s="45" t="s">
+      <c r="AG9" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="AH10" s="45"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="156" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="11" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A11" s="56">
+      <c r="AH9" s="45"/>
+      <c r="AI9" s="55"/>
+      <c r="AJ9" s="156" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A10" s="56">
         <v>2</v>
       </c>
-      <c r="B11" s="57" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" s="58">
+      <c r="B10" s="57" t="s">
+        <v>50</v>
+      </c>
+      <c r="C10" s="58">
         <v>4775</v>
       </c>
-      <c r="D11" s="58">
+      <c r="D10" s="58">
         <v>16</v>
       </c>
-      <c r="E11" s="59">
+      <c r="E10" s="59">
         <f t="shared" si="10"/>
         <v>76400</v>
       </c>
-      <c r="F11" s="60">
+      <c r="F10" s="60">
         <f t="shared" si="11"/>
-        <v>0.049512008606275838</v>
-      </c>
-      <c r="G11" s="61" t="s">
-        <v>52</v>
-      </c>
-      <c r="H11" s="62">
+        <v>0.050357910278550432</v>
+      </c>
+      <c r="G10" s="61" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="62">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""LTIM"")"),4793.8)</f>
         <v>4793.8000000000002</v>
       </c>
-      <c r="I11" s="59">
+      <c r="I10" s="59">
         <f t="shared" ca="1" si="12"/>
         <v>76700.800000000003</v>
       </c>
+      <c r="J10" s="42">
+        <f t="shared" ca="1" si="13"/>
+        <v>300.80000000000291</v>
+      </c>
+      <c r="K10" s="63">
+        <f ca="1">J10/E10</f>
+        <v>0.0039371727748691481</v>
+      </c>
+      <c r="L10" s="64">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""LTIM"",""marketcap"")/10^7"),173004)</f>
+        <v>173004</v>
+      </c>
+      <c r="M10" s="65">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""LTIM"",""PE"")"),34.69)</f>
+        <v>34.689999999999998</v>
+      </c>
+      <c r="N10" s="65">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""LTIM"",""EPS"")"),145.92)</f>
+        <v>145.91999999999999</v>
+      </c>
+      <c r="O10" s="66">
+        <v>36485</v>
+      </c>
+      <c r="P10" s="67">
+        <v>6426</v>
+      </c>
+      <c r="Q10" s="68">
+        <v>0.18</v>
+      </c>
+      <c r="R10" s="66">
+        <v>4654</v>
+      </c>
+      <c r="S10" s="68">
+        <v>0.13</v>
+      </c>
+      <c r="T10" s="67">
+        <v>5670</v>
+      </c>
+      <c r="U10" s="67">
+        <v>16058</v>
+      </c>
+      <c r="V10" s="67">
+        <v>11468</v>
+      </c>
+      <c r="W10" s="67">
+        <v>0</v>
+      </c>
+      <c r="X10" s="66">
+        <v>676</v>
+      </c>
+      <c r="Y10" s="69">
+        <v>0.42130000000000001</v>
+      </c>
+      <c r="Z10" s="69">
+        <v>0.18720000000000001</v>
+      </c>
+      <c r="AA10" s="69">
+        <v>0.33260000000000001</v>
+      </c>
+      <c r="AB10" s="68">
+        <v>0.27</v>
+      </c>
+      <c r="AC10" s="70">
+        <f t="shared" ca="1" si="14"/>
+        <v>4.7417842949157185</v>
+      </c>
+      <c r="AD10" s="89">
+        <f t="shared" si="15"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="AE10" s="89">
+        <f t="shared" si="16"/>
+        <v>0.82081128747795418</v>
+      </c>
+      <c r="AF10" s="82">
+        <f t="shared" ca="1" si="17"/>
+        <v>7.091420118343196</v>
+      </c>
+      <c r="AG10" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH10" s="65"/>
+      <c r="AI10" s="83"/>
+      <c r="AJ10" s="156" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A11" s="35">
+        <v>3</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="37">
+        <v>672</v>
+      </c>
+      <c r="D11" s="37">
+        <v>61</v>
+      </c>
+      <c r="E11" s="38">
+        <f t="shared" si="10"/>
+        <v>40992</v>
+      </c>
+      <c r="F11" s="39">
+        <f t="shared" si="11"/>
+        <v>0.027019259923276692</v>
+      </c>
+      <c r="G11" s="40">
+        <v>542651</v>
+      </c>
+      <c r="H11" s="41">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542651"")"),1293.1)</f>
+        <v>1293.0999999999999</v>
+      </c>
+      <c r="I11" s="38">
+        <f t="shared" ca="1" si="12"/>
+        <v>78879.099999999991</v>
+      </c>
       <c r="J11" s="42">
         <f t="shared" ca="1" si="13"/>
-        <v>300.80000000000291</v>
-      </c>
-      <c r="K11" s="63">
+        <v>37887.099999999991</v>
+      </c>
+      <c r="K11" s="43">
         <f ca="1">J11/E11</f>
-        <v>0.0039371727748691481</v>
-      </c>
-      <c r="L11" s="64">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""LTIM"",""marketcap"")/10^7"),173004)</f>
-        <v>173004</v>
-      </c>
-      <c r="M11" s="65">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""LTIM"",""PE"")"),34.69)</f>
-        <v>34.689999999999998</v>
-      </c>
-      <c r="N11" s="65">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""LTIM"",""EPS"")"),145.92)</f>
-        <v>145.91999999999999</v>
-      </c>
-      <c r="O11" s="66">
-        <v>36485</v>
-      </c>
-      <c r="P11" s="67">
-        <v>6426</v>
-      </c>
-      <c r="Q11" s="68">
-        <v>0.18</v>
-      </c>
-      <c r="R11" s="66">
-        <v>4654</v>
-      </c>
-      <c r="S11" s="68">
+        <v>0.92425595238095215</v>
+      </c>
+      <c r="L11" s="44">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542651"",""marketcap"")/10^7"),35073.415155)</f>
+        <v>35073.415155000002</v>
+      </c>
+      <c r="M11" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542651"",""PE"")"),46.57)</f>
+        <v>46.57</v>
+      </c>
+      <c r="N11" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542651"",""EPS"")"),27.77)</f>
+        <v>27.77</v>
+      </c>
+      <c r="O11" s="46">
+        <v>5411</v>
+      </c>
+      <c r="P11" s="47">
+        <v>1116</v>
+      </c>
+      <c r="Q11" s="48">
+        <v>0.21</v>
+      </c>
+      <c r="R11" s="46">
+        <v>728</v>
+      </c>
+      <c r="S11" s="48">
         <v>0.13</v>
       </c>
-      <c r="T11" s="67">
-        <v>5670</v>
-      </c>
-      <c r="U11" s="67">
-        <v>16058</v>
-      </c>
-      <c r="V11" s="67">
-        <v>11468</v>
-      </c>
-      <c r="W11" s="67">
+      <c r="T11" s="47">
+        <v>1002</v>
+      </c>
+      <c r="U11" s="47">
+        <v>2956</v>
+      </c>
+      <c r="V11" s="47">
+        <v>1402</v>
+      </c>
+      <c r="W11" s="47">
         <v>0</v>
       </c>
-      <c r="X11" s="66">
-        <v>676</v>
-      </c>
-      <c r="Y11" s="69">
-        <v>0.42130000000000001</v>
-      </c>
-      <c r="Z11" s="69">
-        <v>0.18720000000000001</v>
-      </c>
-      <c r="AA11" s="69">
-        <v>0.33260000000000001</v>
-      </c>
-      <c r="AB11" s="68">
-        <v>0.27</v>
-      </c>
-      <c r="AC11" s="70">
+      <c r="X11" s="46">
+        <v>78</v>
+      </c>
+      <c r="Y11" s="50">
+        <v>0.33760000000000001</v>
+      </c>
+      <c r="Z11" s="50">
+        <v>0.19450000000000001</v>
+      </c>
+      <c r="AA11" s="50">
+        <v>0.59640000000000004</v>
+      </c>
+      <c r="AB11" s="48">
+        <v>1.03</v>
+      </c>
+      <c r="AC11" s="51">
         <f t="shared" ca="1" si="14"/>
-        <v>4.7417842949157185</v>
-      </c>
-      <c r="AD11" s="89">
+        <v>6.481873065052671</v>
+      </c>
+      <c r="AD11" s="75">
         <f t="shared" si="15"/>
-        <v>1.1333333333333333</v>
-      </c>
-      <c r="AE11" s="89">
+        <v>1.1137724550898203</v>
+      </c>
+      <c r="AE11" s="75">
         <f t="shared" si="16"/>
-        <v>0.82081128747795418</v>
-      </c>
-      <c r="AF11" s="82">
+        <v>0.72654690618762474</v>
+      </c>
+      <c r="AF11" s="91">
         <f t="shared" ca="1" si="17"/>
-        <v>7.091420118343196</v>
+        <v>16.578205128205127</v>
       </c>
       <c r="AG11" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AH11" s="65"/>
-      <c r="AI11" s="83"/>
+      <c r="AH11" s="45"/>
+      <c r="AI11" s="92" t="s">
+        <v>53</v>
+      </c>
       <c r="AJ11" s="156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A12" s="35">
-        <v>3</v>
-      </c>
-      <c r="B12" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="37">
-        <v>672</v>
-      </c>
-      <c r="D12" s="37">
-        <v>61</v>
-      </c>
-      <c r="E12" s="38">
+      <c r="A12" s="56">
+        <v>4</v>
+      </c>
+      <c r="B12" s="93" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="58">
+        <v>1072</v>
+      </c>
+      <c r="D12" s="58">
+        <v>63</v>
+      </c>
+      <c r="E12" s="59">
         <f t="shared" si="10"/>
-        <v>40992</v>
-      </c>
-      <c r="F12" s="39">
+        <v>67536</v>
+      </c>
+      <c r="F12" s="60">
         <f t="shared" si="11"/>
-        <v>0.026565396031262557</v>
-      </c>
-      <c r="G12" s="40">
-        <v>542651</v>
-      </c>
-      <c r="H12" s="41">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542651"")"),1293.1)</f>
-        <v>1293.0999999999999</v>
-      </c>
-      <c r="I12" s="38">
+        <v>0.044515338070316518</v>
+      </c>
+      <c r="G12" s="79">
+        <v>544028</v>
+      </c>
+      <c r="H12" s="62">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544028"")"),662)</f>
+        <v>662</v>
+      </c>
+      <c r="I12" s="59">
         <f t="shared" ca="1" si="12"/>
-        <v>78879.099999999991</v>
-      </c>
-      <c r="J12" s="42">
+        <v>41706</v>
+      </c>
+      <c r="J12" s="80">
         <f t="shared" ca="1" si="13"/>
-        <v>37887.099999999991</v>
-      </c>
-      <c r="K12" s="43">
+        <v>-25830</v>
+      </c>
+      <c r="K12" s="63">
         <f ca="1">J12/E12</f>
-        <v>0.92425595238095215</v>
-      </c>
-      <c r="L12" s="44">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542651"",""marketcap"")/10^7"),35073.415155)</f>
-        <v>35073.415155000002</v>
-      </c>
-      <c r="M12" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542651"",""PE"")"),46.57)</f>
-        <v>46.57</v>
-      </c>
-      <c r="N12" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542651"",""EPS"")"),27.77)</f>
-        <v>27.77</v>
-      </c>
-      <c r="O12" s="46">
-        <v>5411</v>
-      </c>
-      <c r="P12" s="47">
-        <v>1116</v>
-      </c>
-      <c r="Q12" s="48">
-        <v>0.21</v>
-      </c>
-      <c r="R12" s="46">
-        <v>728</v>
-      </c>
-      <c r="S12" s="48">
+        <v>-0.3824626865671642</v>
+      </c>
+      <c r="L12" s="64">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544028"",""marketcap"")/10^7"),26879.5938195)</f>
+        <v>26879.593819500002</v>
+      </c>
+      <c r="M12" s="65">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544028"",""PE"")"),41.68)</f>
+        <v>41.68</v>
+      </c>
+      <c r="N12" s="65">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544028"",""EPS"")"),15.88)</f>
+        <v>15.880000000000001</v>
+      </c>
+      <c r="O12" s="66">
+        <v>5156</v>
+      </c>
+      <c r="P12" s="67">
+        <v>943</v>
+      </c>
+      <c r="Q12" s="68">
+        <v>0.18</v>
+      </c>
+      <c r="R12" s="66">
+        <v>647</v>
+      </c>
+      <c r="S12" s="68">
         <v>0.13</v>
       </c>
-      <c r="T12" s="47">
-        <v>1002</v>
-      </c>
-      <c r="U12" s="47">
-        <v>2956</v>
-      </c>
-      <c r="V12" s="47">
-        <v>1402</v>
-      </c>
-      <c r="W12" s="47">
+      <c r="T12" s="67">
+        <v>294</v>
+      </c>
+      <c r="U12" s="67">
+        <v>2037</v>
+      </c>
+      <c r="V12" s="67">
+        <v>1731</v>
+      </c>
+      <c r="W12" s="67">
         <v>0</v>
       </c>
-      <c r="X12" s="46">
-        <v>78</v>
-      </c>
-      <c r="Y12" s="50">
-        <v>0.33760000000000001</v>
-      </c>
-      <c r="Z12" s="50">
-        <v>0.19450000000000001</v>
-      </c>
-      <c r="AA12" s="50">
-        <v>0.59640000000000004</v>
-      </c>
-      <c r="AB12" s="48">
-        <v>1.03</v>
-      </c>
-      <c r="AC12" s="51">
+      <c r="X12" s="66">
+        <v>79</v>
+      </c>
+      <c r="Y12" s="69">
+        <v>0.29049999999999998</v>
+      </c>
+      <c r="Z12" s="69">
+        <v>0.18440000000000001</v>
+      </c>
+      <c r="AA12" s="69">
+        <v>0.41620000000000001</v>
+      </c>
+      <c r="AB12" s="65"/>
+      <c r="AC12" s="70">
         <f t="shared" ca="1" si="14"/>
-        <v>6.481873065052671</v>
-      </c>
-      <c r="AD12" s="75">
+        <v>5.2132648990496513</v>
+      </c>
+      <c r="AD12" s="89">
         <f t="shared" si="15"/>
-        <v>1.1137724550898203</v>
-      </c>
-      <c r="AE12" s="75">
+        <v>3.2074829931972788</v>
+      </c>
+      <c r="AE12" s="89">
         <f t="shared" si="16"/>
-        <v>0.72654690618762474</v>
-      </c>
-      <c r="AF12" s="91">
+        <v>2.2006802721088436</v>
+      </c>
+      <c r="AF12" s="82">
         <f t="shared" ca="1" si="17"/>
-        <v>16.578205128205127</v>
+        <v>8.3797468354430382</v>
       </c>
       <c r="AG12" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AH12" s="45"/>
+      <c r="AH12" s="65"/>
       <c r="AI12" s="92" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ12" s="156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A13" s="56">
-        <v>4</v>
-      </c>
-      <c r="B13" s="93" t="s">
+      <c r="A13" s="35">
+        <v>5</v>
+      </c>
+      <c r="B13" s="84" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="58">
-        <v>1072</v>
-      </c>
-      <c r="D13" s="58">
-        <v>63</v>
-      </c>
-      <c r="E13" s="59">
+      <c r="C13" s="37">
+        <v>232</v>
+      </c>
+      <c r="D13" s="37">
+        <v>191</v>
+      </c>
+      <c r="E13" s="38">
         <f t="shared" si="10"/>
-        <v>67536</v>
-      </c>
-      <c r="F13" s="60">
+        <v>44312</v>
+      </c>
+      <c r="F13" s="39">
         <f t="shared" si="11"/>
-        <v>0.043767578707244049</v>
-      </c>
-      <c r="G13" s="79">
-        <v>544028</v>
-      </c>
-      <c r="H13" s="62">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544028"")"),662)</f>
-        <v>662</v>
-      </c>
-      <c r="I13" s="59">
+        <v>0.029207587961559249</v>
+      </c>
+      <c r="G13" s="85">
+        <v>544107</v>
+      </c>
+      <c r="H13" s="41">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544107"")"),152.9)</f>
+        <v>152.90000000000001</v>
+      </c>
+      <c r="I13" s="38">
         <f t="shared" ca="1" si="12"/>
-        <v>41706</v>
+        <v>29203.900000000001</v>
       </c>
       <c r="J13" s="80">
         <f t="shared" ca="1" si="13"/>
-        <v>-25830</v>
-      </c>
-      <c r="K13" s="63">
+        <v>-15108.099999999999</v>
+      </c>
+      <c r="K13" s="43">
         <f ca="1">J13/E13</f>
-        <v>-0.3824626865671642</v>
-      </c>
-      <c r="L13" s="64">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544028"",""marketcap"")/10^7"),26879.5938195)</f>
-        <v>26879.593819500002</v>
-      </c>
-      <c r="M13" s="65">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544028"",""PE"")"),41.68)</f>
-        <v>41.68</v>
-      </c>
-      <c r="N13" s="65">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544028"",""EPS"")"),15.88)</f>
-        <v>15.880000000000001</v>
-      </c>
-      <c r="O13" s="66">
-        <v>5156</v>
-      </c>
-      <c r="P13" s="67">
-        <v>943</v>
-      </c>
-      <c r="Q13" s="68">
-        <v>0.18</v>
-      </c>
-      <c r="R13" s="66">
-        <v>647</v>
-      </c>
-      <c r="S13" s="68">
-        <v>0.13</v>
-      </c>
-      <c r="T13" s="67">
-        <v>294</v>
-      </c>
-      <c r="U13" s="67">
-        <v>2037</v>
-      </c>
-      <c r="V13" s="67">
-        <v>1731</v>
-      </c>
-      <c r="W13" s="67">
+        <v>-0.34094827586206894</v>
+      </c>
+      <c r="L13" s="44">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544107"",""marketcap"")/10^7"),1388.6507127)</f>
+        <v>1388.6507127</v>
+      </c>
+      <c r="M13" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544107"",""PE"")"),26.3)</f>
+        <v>26.300000000000001</v>
+      </c>
+      <c r="N13" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544107"",""EPS"")"),5.8)</f>
+        <v>5.7999999999999998</v>
+      </c>
+      <c r="O13" s="46">
+        <v>298</v>
+      </c>
+      <c r="P13" s="47">
+        <v>46</v>
+      </c>
+      <c r="Q13" s="48">
+        <v>0.16</v>
+      </c>
+      <c r="R13" s="46">
+        <v>44</v>
+      </c>
+      <c r="S13" s="48">
+        <v>0.15</v>
+      </c>
+      <c r="T13" s="47">
+        <v>20</v>
+      </c>
+      <c r="U13" s="47">
+        <v>77</v>
+      </c>
+      <c r="V13" s="88">
+        <v>-16</v>
+      </c>
+      <c r="W13" s="47">
         <v>0</v>
       </c>
-      <c r="X13" s="66">
-        <v>79</v>
-      </c>
-      <c r="Y13" s="69">
-        <v>0.29049999999999998</v>
-      </c>
-      <c r="Z13" s="69">
-        <v>0.18440000000000001</v>
-      </c>
-      <c r="AA13" s="69">
-        <v>0.41620000000000001</v>
-      </c>
-      <c r="AB13" s="65"/>
-      <c r="AC13" s="70">
+      <c r="X13" s="46">
+        <v>55</v>
+      </c>
+      <c r="Y13" s="50">
+        <v>0.67210000000000003</v>
+      </c>
+      <c r="Z13" s="50">
+        <v>0.12790000000000001</v>
+      </c>
+      <c r="AA13" s="50">
+        <v>1.1521999999999999</v>
+      </c>
+      <c r="AB13" s="45"/>
+      <c r="AC13" s="51">
         <f t="shared" ca="1" si="14"/>
-        <v>5.2132648990496513</v>
-      </c>
-      <c r="AD13" s="89">
+        <v>4.659901720469799</v>
+      </c>
+      <c r="AD13" s="75">
         <f t="shared" si="15"/>
-        <v>3.2074829931972788</v>
-      </c>
-      <c r="AE13" s="89">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="AE13" s="75">
         <f t="shared" si="16"/>
-        <v>2.2006802721088436</v>
-      </c>
-      <c r="AF13" s="82">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="AF13" s="54">
         <f t="shared" ca="1" si="17"/>
-        <v>8.3797468354430382</v>
-      </c>
-      <c r="AG13" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH13" s="65"/>
-      <c r="AI13" s="92" t="s">
-        <v>54</v>
-      </c>
+        <v>2.7800000000000002</v>
+      </c>
+      <c r="AG13" s="45" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH13" s="45"/>
+      <c r="AI13" s="55"/>
       <c r="AJ13" s="156" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="14" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A14" s="35">
-        <v>5</v>
-      </c>
-      <c r="B14" s="84" t="s">
+      <c r="A14" s="56">
+        <v>6</v>
+      </c>
+      <c r="B14" s="94" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="37">
-        <v>232</v>
-      </c>
-      <c r="D14" s="37">
-        <v>191</v>
-      </c>
-      <c r="E14" s="38">
+      <c r="C14" s="58">
+        <v>1134</v>
+      </c>
+      <c r="D14" s="58">
+        <v>45</v>
+      </c>
+      <c r="E14" s="59">
         <f t="shared" si="10"/>
-        <v>44312</v>
-      </c>
-      <c r="F14" s="39">
+        <v>51030</v>
+      </c>
+      <c r="F14" s="60">
         <f t="shared" si="11"/>
-        <v>0.028716964991639986</v>
-      </c>
-      <c r="G14" s="85">
-        <v>544107</v>
-      </c>
-      <c r="H14" s="41">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544107"")"),152.9)</f>
-        <v>152.90000000000001</v>
-      </c>
-      <c r="I14" s="38">
+        <v>0.033635656564324982</v>
+      </c>
+      <c r="G14" s="79">
+        <v>532790</v>
+      </c>
+      <c r="H14" s="62">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532790"")"),449.5)</f>
+        <v>449.5</v>
+      </c>
+      <c r="I14" s="59">
         <f t="shared" ca="1" si="12"/>
-        <v>29203.900000000001</v>
+        <v>20227.5</v>
       </c>
       <c r="J14" s="80">
         <f t="shared" ca="1" si="13"/>
-        <v>-15108.099999999999</v>
-      </c>
-      <c r="K14" s="43">
+        <v>-30802.5</v>
+      </c>
+      <c r="K14" s="63">
         <f ca="1">J14/E14</f>
-        <v>-0.34094827586206894</v>
-      </c>
-      <c r="L14" s="44">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544107"",""marketcap"")/10^7"),1388.6507127)</f>
-        <v>1388.6507127</v>
-      </c>
-      <c r="M14" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544107"",""PE"")"),26.3)</f>
-        <v>26.300000000000001</v>
-      </c>
-      <c r="N14" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""544107"",""EPS"")"),5.8)</f>
-        <v>5.7999999999999998</v>
-      </c>
-      <c r="O14" s="46">
-        <v>298</v>
-      </c>
-      <c r="P14" s="47">
-        <v>46</v>
-      </c>
-      <c r="Q14" s="48">
-        <v>0.16</v>
-      </c>
-      <c r="R14" s="46">
-        <v>44</v>
-      </c>
-      <c r="S14" s="48">
-        <v>0.15</v>
-      </c>
-      <c r="T14" s="47">
-        <v>20</v>
-      </c>
-      <c r="U14" s="47">
-        <v>77</v>
-      </c>
-      <c r="V14" s="88">
-        <v>-16</v>
-      </c>
-      <c r="W14" s="47">
-        <v>0</v>
-      </c>
-      <c r="X14" s="46">
-        <v>55</v>
-      </c>
-      <c r="Y14" s="50">
-        <v>0.67210000000000003</v>
-      </c>
-      <c r="Z14" s="50">
-        <v>0.12790000000000001</v>
-      </c>
-      <c r="AA14" s="50">
-        <v>1.1521999999999999</v>
-      </c>
-      <c r="AB14" s="45"/>
-      <c r="AC14" s="51">
-        <f t="shared" ca="1" si="14"/>
-        <v>4.659901720469799</v>
-      </c>
-      <c r="AD14" s="75">
-        <f t="shared" si="15"/>
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="AE14" s="75">
-        <f t="shared" si="16"/>
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="AF14" s="54">
-        <f t="shared" ca="1" si="17"/>
-        <v>2.7800000000000002</v>
-      </c>
-      <c r="AG14" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH14" s="45"/>
-      <c r="AI14" s="55"/>
-      <c r="AJ14" s="156" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="15" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A15" s="56">
-        <v>6</v>
-      </c>
-      <c r="B15" s="94" t="s">
-        <v>57</v>
-      </c>
-      <c r="C15" s="58">
-        <v>1134</v>
-      </c>
-      <c r="D15" s="58">
-        <v>45</v>
-      </c>
-      <c r="E15" s="59">
-        <f t="shared" si="10"/>
-        <v>51030</v>
-      </c>
-      <c r="F15" s="60">
-        <f t="shared" si="11"/>
-        <v>0.033070651821704926</v>
-      </c>
-      <c r="G15" s="79">
-        <v>532790</v>
-      </c>
-      <c r="H15" s="62">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532790"")"),449.5)</f>
-        <v>449.5</v>
-      </c>
-      <c r="I15" s="59">
-        <f t="shared" ca="1" si="12"/>
-        <v>20227.5</v>
-      </c>
-      <c r="J15" s="80">
-        <f t="shared" ca="1" si="13"/>
-        <v>-30802.5</v>
-      </c>
-      <c r="K15" s="63">
-        <f ca="1">J15/E15</f>
         <v>-0.6036155202821869</v>
       </c>
-      <c r="L15" s="64">
+      <c r="L14" s="64">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532790"",""marketcap"")/10^7"),6041.6242596)</f>
         <v>6041.6242596000002</v>
       </c>
-      <c r="M15" s="65">
+      <c r="M14" s="65">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532790"",""PE"")"),11.64)</f>
         <v>11.640000000000001</v>
       </c>
-      <c r="N15" s="65">
+      <c r="N14" s="65">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543664"",""EPS"")"),39.48)</f>
         <v>39.479999999999997</v>
       </c>
-      <c r="O15" s="66">
+      <c r="O14" s="66">
         <v>4011</v>
       </c>
-      <c r="P15" s="67">
+      <c r="P14" s="67">
         <v>717</v>
       </c>
-      <c r="Q15" s="68">
+      <c r="Q14" s="68">
         <v>0.18</v>
       </c>
-      <c r="R15" s="66">
+      <c r="R14" s="66">
         <v>542</v>
       </c>
-      <c r="S15" s="68">
+      <c r="S14" s="68">
         <v>0.14000000000000001</v>
       </c>
-      <c r="T15" s="67">
+      <c r="T14" s="67">
         <v>590</v>
       </c>
-      <c r="U15" s="67">
+      <c r="U14" s="67">
         <v>2124</v>
       </c>
-      <c r="V15" s="67">
+      <c r="V14" s="67">
         <v>1675</v>
       </c>
-      <c r="W15" s="67">
+      <c r="W14" s="67">
         <v>0</v>
       </c>
-      <c r="X15" s="66">
+      <c r="X14" s="66">
         <v>144</v>
       </c>
-      <c r="Y15" s="69">
+      <c r="Y14" s="69">
         <v>0.18820000000000001</v>
       </c>
-      <c r="Z15" s="69">
+      <c r="Z14" s="69">
         <v>0.1933</v>
       </c>
-      <c r="AA15" s="69">
+      <c r="AA14" s="69">
         <v>0.1547</v>
       </c>
-      <c r="AB15" s="68">
+      <c r="AB14" s="68">
         <v>0</v>
       </c>
-      <c r="AC15" s="70">
+      <c r="AC14" s="70">
         <f t="shared" ca="1" si="14"/>
         <v>1.50626383934181</v>
       </c>
-      <c r="AD15" s="89">
+      <c r="AD14" s="89">
         <f t="shared" si="15"/>
         <v>1.2152542372881356</v>
       </c>
-      <c r="AE15" s="89">
+      <c r="AE14" s="89">
         <f t="shared" si="16"/>
         <v>0.91864406779661012</v>
       </c>
-      <c r="AF15" s="82">
+      <c r="AF14" s="82">
         <f t="shared" ca="1" si="17"/>
         <v>3.1215277777777777</v>
       </c>
-      <c r="AG15" s="90" t="s">
+      <c r="AG14" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AH15" s="65"/>
-      <c r="AI15" s="83"/>
-      <c r="AJ15" s="156" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="16" spans="1:36" ht="15.75">
-      <c r="A16" s="95"/>
-      <c r="B16" s="96" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="97"/>
-      <c r="D16" s="97"/>
-      <c r="E16" s="98">
-        <f t="shared" si="18" ref="E16:F16">SUM(E17:E19)</f>
+      <c r="AH14" s="65"/>
+      <c r="AI14" s="83"/>
+      <c r="AJ14" s="156" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" ht="15.75">
+      <c r="A15" s="95"/>
+      <c r="B15" s="96" t="s">
+        <v>57</v>
+      </c>
+      <c r="C15" s="97"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98">
+        <f t="shared" si="18" ref="E15:F15">SUM(E16:E18)</f>
         <v>263565</v>
       </c>
-      <c r="F16" s="99">
+      <c r="F15" s="99">
         <f t="shared" si="18"/>
-        <v>0.17080670874755355</v>
-      </c>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="98">
-        <f ca="1" t="shared" si="19" ref="I16:J16">SUM(I17:I19)</f>
+        <v>0.17372490343672964</v>
+      </c>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="98">
+        <f ca="1" t="shared" si="19" ref="I15:J15">SUM(I16:I18)</f>
         <v>277958.70000000001</v>
       </c>
-      <c r="J16" s="98">
+      <c r="J15" s="98">
         <f t="shared" ca="1" si="19"/>
         <v>14393.699999999997</v>
       </c>
-      <c r="K16" s="102">
-        <f ca="1">J16/E16</f>
+      <c r="K15" s="102">
+        <f ca="1">J15/E15</f>
         <v>0.054611575892094921</v>
       </c>
-      <c r="L16" s="103"/>
-      <c r="M16" s="104"/>
-      <c r="N16" s="104"/>
-      <c r="O16" s="105"/>
-      <c r="P16" s="106"/>
-      <c r="Q16" s="107"/>
-      <c r="R16" s="105"/>
-      <c r="S16" s="107"/>
-      <c r="T16" s="106"/>
-      <c r="U16" s="106"/>
-      <c r="V16" s="106"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="105"/>
-      <c r="Y16" s="108"/>
-      <c r="Z16" s="108"/>
-      <c r="AA16" s="108"/>
-      <c r="AB16" s="107"/>
-      <c r="AC16" s="109"/>
-      <c r="AD16" s="110"/>
-      <c r="AE16" s="110"/>
-      <c r="AF16" s="111"/>
-      <c r="AG16" s="112"/>
-      <c r="AH16" s="112"/>
-      <c r="AI16" s="113"/>
-      <c r="AJ16" s="159"/>
-    </row>
-    <row r="17" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A17" s="56">
+      <c r="L15" s="103"/>
+      <c r="M15" s="104"/>
+      <c r="N15" s="104"/>
+      <c r="O15" s="105"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="107"/>
+      <c r="R15" s="105"/>
+      <c r="S15" s="107"/>
+      <c r="T15" s="106"/>
+      <c r="U15" s="106"/>
+      <c r="V15" s="106"/>
+      <c r="W15" s="106"/>
+      <c r="X15" s="105"/>
+      <c r="Y15" s="108"/>
+      <c r="Z15" s="108"/>
+      <c r="AA15" s="108"/>
+      <c r="AB15" s="107"/>
+      <c r="AC15" s="109"/>
+      <c r="AD15" s="110"/>
+      <c r="AE15" s="110"/>
+      <c r="AF15" s="111"/>
+      <c r="AG15" s="112"/>
+      <c r="AH15" s="112"/>
+      <c r="AI15" s="113"/>
+      <c r="AJ15" s="159"/>
+    </row>
+    <row r="16" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A16" s="56">
         <v>1</v>
       </c>
-      <c r="B17" s="57" t="s">
+      <c r="B16" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="58">
+        <v>3777</v>
+      </c>
+      <c r="D16" s="58">
+        <v>27</v>
+      </c>
+      <c r="E16" s="59">
+        <f t="shared" si="20" ref="E16:E18">C16*D16</f>
+        <v>101979</v>
+      </c>
+      <c r="F16" s="60">
+        <f t="shared" si="21" ref="F16:F18">E16/$E$34</f>
+        <v>0.067217923197595481</v>
+      </c>
+      <c r="G16" s="61" t="s">
         <v>59</v>
       </c>
-      <c r="C17" s="58">
-        <v>3777</v>
-      </c>
-      <c r="D17" s="58">
-        <v>27</v>
-      </c>
-      <c r="E17" s="59">
-        <f t="shared" si="20" ref="E17:E19">C17*D17</f>
-        <v>101979</v>
-      </c>
-      <c r="F17" s="60">
-        <f t="shared" si="21" ref="F17:F19">E17/$E$35</f>
-        <v>0.066088810545280152</v>
-      </c>
-      <c r="G17" s="61" t="s">
-        <v>60</v>
-      </c>
-      <c r="H17" s="62">
+      <c r="H16" s="62">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""DMART"")"),3451.1)</f>
         <v>3451.0999999999999</v>
       </c>
-      <c r="I17" s="59">
-        <f ca="1" t="shared" si="22" ref="I17:I19">H17*D17</f>
+      <c r="I16" s="59">
+        <f ca="1" t="shared" si="22" ref="I16:I18">H16*D16</f>
         <v>93179.699999999997</v>
       </c>
-      <c r="J17" s="80">
-        <f ca="1" t="shared" si="23" ref="J17:J19">I17-E17</f>
+      <c r="J16" s="80">
+        <f ca="1" t="shared" si="23" ref="J16:J18">I16-E16</f>
         <v>-8799.3000000000029</v>
       </c>
-      <c r="K17" s="63">
-        <f ca="1">J17/E17</f>
+      <c r="K16" s="63">
+        <f ca="1">J16/E16</f>
         <v>-0.086285411702409345</v>
       </c>
-      <c r="L17" s="64">
+      <c r="L16" s="64">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""DMART"",""marketcap"")/10^7"),224584.226625)</f>
         <v>224584.22662500001</v>
       </c>
-      <c r="M17" s="81">
+      <c r="M16" s="81">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""DMART"",""PE"")"),82.63)</f>
         <v>82.629999999999995</v>
       </c>
-      <c r="N17" s="65">
+      <c r="N16" s="65">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""DMART"",""EPS"")"),41.75)</f>
         <v>41.75</v>
       </c>
-      <c r="O17" s="66">
+      <c r="O16" s="66">
         <v>54813</v>
       </c>
-      <c r="P17" s="67">
+      <c r="P16" s="67">
         <v>4379</v>
       </c>
-      <c r="Q17" s="114">
+      <c r="Q16" s="114">
         <v>0.08</v>
       </c>
-      <c r="R17" s="66">
+      <c r="R16" s="66">
         <v>2687</v>
       </c>
-      <c r="S17" s="68">
+      <c r="S16" s="68">
         <v>0.05</v>
       </c>
-      <c r="T17" s="67">
+      <c r="T16" s="67">
         <v>2746</v>
       </c>
-      <c r="U17" s="67">
+      <c r="U16" s="67">
         <v>9404</v>
       </c>
-      <c r="V17" s="88">
+      <c r="V16" s="88">
         <v>-169</v>
       </c>
-      <c r="W17" s="67">
+      <c r="W16" s="67">
         <v>0</v>
       </c>
-      <c r="X17" s="66">
+      <c r="X16" s="66">
         <v>288</v>
       </c>
-      <c r="Y17" s="69">
+      <c r="Y16" s="69">
         <v>0.28129999999999999</v>
       </c>
-      <c r="Z17" s="69">
+      <c r="Z16" s="69">
         <v>0.082199999999999995</v>
       </c>
-      <c r="AA17" s="69">
+      <c r="AA16" s="69">
         <v>0.32129999999999997</v>
       </c>
-      <c r="AB17" s="68">
+      <c r="AB16" s="68">
         <v>0.17</v>
       </c>
+      <c r="AC16" s="115">
+        <f ca="1" t="shared" si="24" ref="AC16:AC18">L16/O16</f>
+        <v>4.097280328115593</v>
+      </c>
+      <c r="AD16" s="89">
+        <f t="shared" si="25" ref="AD16:AD18">P16/T16</f>
+        <v>1.5946831755280408</v>
+      </c>
+      <c r="AE16" s="89">
+        <f t="shared" si="26" ref="AE16:AE18">R16/T16</f>
+        <v>0.97851420247632925</v>
+      </c>
+      <c r="AF16" s="71">
+        <f ca="1" t="shared" si="27" ref="AF16:AF18">H16/X16</f>
+        <v>11.98298611111111</v>
+      </c>
+      <c r="AG16" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH16" s="65"/>
+      <c r="AI16" s="92" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ16" s="156" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A17" s="35">
+        <v>2</v>
+      </c>
+      <c r="B17" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="C17" s="37">
+        <v>845</v>
+      </c>
+      <c r="D17" s="37">
+        <v>90</v>
+      </c>
+      <c r="E17" s="38">
+        <f t="shared" si="20"/>
+        <v>76050</v>
+      </c>
+      <c r="F17" s="39">
+        <f t="shared" si="21"/>
+        <v>0.050127213045598959</v>
+      </c>
+      <c r="G17" s="85">
+        <v>532540</v>
+      </c>
+      <c r="H17" s="41">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500800"")"),961.1)</f>
+        <v>961.10000000000002</v>
+      </c>
+      <c r="I17" s="38">
+        <f t="shared" ca="1" si="22"/>
+        <v>86499</v>
+      </c>
+      <c r="J17" s="42">
+        <f t="shared" ca="1" si="23"/>
+        <v>10449</v>
+      </c>
+      <c r="K17" s="43">
+        <f ca="1">J17/E17</f>
+        <v>0.137396449704142</v>
+      </c>
+      <c r="L17" s="44">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532540"",""marketcap"")/10^7"),1297066.0813985)</f>
+        <v>1297066.0813984999</v>
+      </c>
+      <c r="M17" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532540"",""PE"")"),26.56)</f>
+        <v>26.559999999999999</v>
+      </c>
+      <c r="N17" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532540"",""EPS"")"),134.77)</f>
+        <v>134.77000000000001</v>
+      </c>
+      <c r="O17" s="46">
+        <v>248692</v>
+      </c>
+      <c r="P17" s="47">
+        <v>66945</v>
+      </c>
+      <c r="Q17" s="48">
+        <v>0.27</v>
+      </c>
+      <c r="R17" s="46">
+        <v>47441</v>
+      </c>
+      <c r="S17" s="48">
+        <v>0.19</v>
+      </c>
+      <c r="T17" s="47">
+        <v>44338</v>
+      </c>
+      <c r="U17" s="47">
+        <v>197423</v>
+      </c>
+      <c r="V17" s="47">
+        <v>189508</v>
+      </c>
+      <c r="W17" s="47">
+        <v>0</v>
+      </c>
+      <c r="X17" s="46">
+        <v>249</v>
+      </c>
+      <c r="Y17" s="50">
+        <v>0.1363</v>
+      </c>
+      <c r="Z17" s="50">
+        <v>0.26840000000000003</v>
+      </c>
+      <c r="AA17" s="50">
+        <v>0.12280000000000001</v>
+      </c>
+      <c r="AB17" s="48">
+        <v>0.06</v>
+      </c>
       <c r="AC17" s="115">
-        <f ca="1" t="shared" si="24" ref="AC17:AC19">L17/O17</f>
-        <v>4.097280328115593</v>
-      </c>
-      <c r="AD17" s="89">
-        <f t="shared" si="25" ref="AD17:AD19">P17/T17</f>
-        <v>1.5946831755280408</v>
-      </c>
-      <c r="AE17" s="89">
-        <f t="shared" si="26" ref="AE17:AE19">R17/T17</f>
-        <v>0.97851420247632925</v>
+        <f t="shared" ca="1" si="24"/>
+        <v>5.2155520941505955</v>
+      </c>
+      <c r="AD17" s="75">
+        <f t="shared" si="25"/>
+        <v>1.5098786593892373</v>
+      </c>
+      <c r="AE17" s="75">
+        <f t="shared" si="26"/>
+        <v>1.0699851143488655</v>
       </c>
       <c r="AF17" s="71">
-        <f ca="1" t="shared" si="27" ref="AF17:AF19">H17/X17</f>
-        <v>11.98298611111111</v>
+        <f t="shared" ca="1" si="27"/>
+        <v>3.8598393574297192</v>
       </c>
       <c r="AG17" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AH17" s="65"/>
-      <c r="AI17" s="92" t="s">
-        <v>61</v>
-      </c>
+      <c r="AH17" s="76"/>
+      <c r="AI17" s="77"/>
       <c r="AJ17" s="156" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A18" s="35">
-        <v>2</v>
-      </c>
-      <c r="B18" s="36" t="s">
+      <c r="A18" s="56">
+        <v>3</v>
+      </c>
+      <c r="B18" s="57" t="s">
         <v>62</v>
       </c>
-      <c r="C18" s="37">
-        <v>845</v>
-      </c>
-      <c r="D18" s="37">
-        <v>90</v>
-      </c>
-      <c r="E18" s="38">
+      <c r="C18" s="58">
+        <v>2376</v>
+      </c>
+      <c r="D18" s="58">
+        <v>36</v>
+      </c>
+      <c r="E18" s="59">
         <f t="shared" si="20"/>
-        <v>76050</v>
-      </c>
-      <c r="F18" s="39">
+        <v>85536</v>
+      </c>
+      <c r="F18" s="60">
         <f t="shared" si="21"/>
-        <v>0.049285186577320388</v>
-      </c>
-      <c r="G18" s="85">
-        <v>532540</v>
-      </c>
-      <c r="H18" s="41">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500800"")"),961.1)</f>
-        <v>961.10000000000002</v>
-      </c>
-      <c r="I18" s="38">
+        <v>0.056379767193535206</v>
+      </c>
+      <c r="G18" s="61">
+        <v>500331</v>
+      </c>
+      <c r="H18" s="62">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500331"")"),2730)</f>
+        <v>2730</v>
+      </c>
+      <c r="I18" s="59">
         <f t="shared" ca="1" si="22"/>
-        <v>86499</v>
+        <v>98280</v>
       </c>
       <c r="J18" s="42">
         <f t="shared" ca="1" si="23"/>
-        <v>10449</v>
-      </c>
-      <c r="K18" s="43">
+        <v>12744</v>
+      </c>
+      <c r="K18" s="63">
         <f ca="1">J18/E18</f>
-        <v>0.137396449704142</v>
-      </c>
-      <c r="L18" s="44">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532540"",""marketcap"")/10^7"),1297066.0813985)</f>
-        <v>1297066.0813984999</v>
-      </c>
-      <c r="M18" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532540"",""PE"")"),26.56)</f>
-        <v>26.559999999999999</v>
-      </c>
-      <c r="N18" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532540"",""EPS"")"),134.77)</f>
-        <v>134.77000000000001</v>
-      </c>
-      <c r="O18" s="46">
-        <v>248692</v>
-      </c>
-      <c r="P18" s="47">
-        <v>66945</v>
-      </c>
-      <c r="Q18" s="48">
-        <v>0.27</v>
-      </c>
-      <c r="R18" s="46">
-        <v>47441</v>
-      </c>
-      <c r="S18" s="48">
+        <v>0.14898989898989898</v>
+      </c>
+      <c r="L18" s="64">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500331"",""marketcap"")/10^7"),138857.7849868)</f>
+        <v>138857.78498679999</v>
+      </c>
+      <c r="M18" s="81">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500331"",""PE"")"),71.13)</f>
+        <v>71.129999999999995</v>
+      </c>
+      <c r="N18" s="65">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500331"",""EPS"")"),38.36)</f>
+        <v>38.359999999999999</v>
+      </c>
+      <c r="O18" s="66">
+        <v>12662</v>
+      </c>
+      <c r="P18" s="67">
+        <v>2897</v>
+      </c>
+      <c r="Q18" s="68">
+        <v>0.23</v>
+      </c>
+      <c r="R18" s="66">
+        <v>1913</v>
+      </c>
+      <c r="S18" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="T18" s="67">
+        <v>2724</v>
+      </c>
+      <c r="U18" s="67">
+        <v>7909</v>
+      </c>
+      <c r="V18" s="67">
+        <v>4000</v>
+      </c>
+      <c r="W18" s="67">
+        <v>0</v>
+      </c>
+      <c r="X18" s="66">
+        <v>165</v>
+      </c>
+      <c r="Y18" s="69">
+        <v>0.193</v>
+      </c>
+      <c r="Z18" s="69">
+        <v>0.19209999999999999</v>
+      </c>
+      <c r="AA18" s="69">
+        <v>0.152</v>
+      </c>
+      <c r="AB18" s="68">
         <v>0.19</v>
-      </c>
-      <c r="T18" s="47">
-        <v>44338</v>
-      </c>
-      <c r="U18" s="47">
-        <v>197423</v>
-      </c>
-      <c r="V18" s="47">
-        <v>189508</v>
-      </c>
-      <c r="W18" s="47">
-        <v>0</v>
-      </c>
-      <c r="X18" s="46">
-        <v>249</v>
-      </c>
-      <c r="Y18" s="50">
-        <v>0.1363</v>
-      </c>
-      <c r="Z18" s="50">
-        <v>0.26840000000000003</v>
-      </c>
-      <c r="AA18" s="50">
-        <v>0.12280000000000001</v>
-      </c>
-      <c r="AB18" s="48">
-        <v>0.06</v>
       </c>
       <c r="AC18" s="115">
         <f t="shared" ca="1" si="24"/>
-        <v>5.2155520941505955</v>
-      </c>
-      <c r="AD18" s="75">
+        <v>10.96649699785184</v>
+      </c>
+      <c r="AD18" s="89">
         <f t="shared" si="25"/>
-        <v>1.5098786593892373</v>
-      </c>
-      <c r="AE18" s="75">
+        <v>1.0635095447870779</v>
+      </c>
+      <c r="AE18" s="89">
         <f t="shared" si="26"/>
-        <v>1.0699851143488655</v>
+        <v>0.70227606461086634</v>
       </c>
       <c r="AF18" s="71">
         <f t="shared" ca="1" si="27"/>
-        <v>3.8598393574297192</v>
+        <v>16.545454545454547</v>
       </c>
       <c r="AG18" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AH18" s="76"/>
-      <c r="AI18" s="77"/>
+      <c r="AH18" s="116"/>
+      <c r="AI18" s="117" t="s">
+        <v>53</v>
+      </c>
       <c r="AJ18" s="156" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="19" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A19" s="56">
-        <v>3</v>
-      </c>
-      <c r="B19" s="57" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:36" ht="15.75">
+      <c r="A19" s="95"/>
+      <c r="B19" s="96" t="s">
         <v>63</v>
       </c>
-      <c r="C19" s="58">
-        <v>2376</v>
-      </c>
-      <c r="D19" s="58">
-        <v>36</v>
-      </c>
-      <c r="E19" s="59">
-        <f t="shared" si="20"/>
-        <v>85536</v>
-      </c>
-      <c r="F19" s="60">
-        <f t="shared" si="21"/>
-        <v>0.055432711624953016</v>
-      </c>
-      <c r="G19" s="61">
-        <v>500331</v>
-      </c>
-      <c r="H19" s="62">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500331"")"),2730)</f>
-        <v>2730</v>
-      </c>
-      <c r="I19" s="59">
-        <f t="shared" ca="1" si="22"/>
-        <v>98280</v>
-      </c>
-      <c r="J19" s="42">
-        <f t="shared" ca="1" si="23"/>
-        <v>12744</v>
-      </c>
-      <c r="K19" s="63">
-        <f ca="1">J19/E19</f>
-        <v>0.14898989898989898</v>
-      </c>
-      <c r="L19" s="64">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500331"",""marketcap"")/10^7"),138857.7849868)</f>
-        <v>138857.78498679999</v>
-      </c>
-      <c r="M19" s="81">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500331"",""PE"")"),71.13)</f>
-        <v>71.129999999999995</v>
-      </c>
-      <c r="N19" s="65">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500331"",""EPS"")"),38.36)</f>
-        <v>38.359999999999999</v>
-      </c>
-      <c r="O19" s="66">
-        <v>12662</v>
-      </c>
-      <c r="P19" s="67">
-        <v>2897</v>
-      </c>
-      <c r="Q19" s="68">
-        <v>0.23</v>
-      </c>
-      <c r="R19" s="66">
-        <v>1913</v>
-      </c>
-      <c r="S19" s="68">
-        <v>0.15</v>
-      </c>
-      <c r="T19" s="67">
-        <v>2724</v>
-      </c>
-      <c r="U19" s="67">
-        <v>7909</v>
-      </c>
-      <c r="V19" s="67">
-        <v>4000</v>
-      </c>
-      <c r="W19" s="67">
-        <v>0</v>
-      </c>
-      <c r="X19" s="66">
-        <v>165</v>
-      </c>
-      <c r="Y19" s="69">
-        <v>0.193</v>
-      </c>
-      <c r="Z19" s="69">
-        <v>0.19209999999999999</v>
-      </c>
-      <c r="AA19" s="69">
-        <v>0.152</v>
-      </c>
-      <c r="AB19" s="68">
-        <v>0.19</v>
-      </c>
-      <c r="AC19" s="115">
-        <f t="shared" ca="1" si="24"/>
-        <v>10.96649699785184</v>
-      </c>
-      <c r="AD19" s="89">
-        <f t="shared" si="25"/>
-        <v>1.0635095447870779</v>
-      </c>
-      <c r="AE19" s="89">
-        <f t="shared" si="26"/>
-        <v>0.70227606461086634</v>
-      </c>
-      <c r="AF19" s="71">
-        <f t="shared" ca="1" si="27"/>
-        <v>16.545454545454547</v>
-      </c>
-      <c r="AG19" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH19" s="116"/>
-      <c r="AI19" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ19" s="156" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="20" spans="1:36" ht="15.75">
-      <c r="A20" s="95"/>
-      <c r="B20" s="96" t="s">
-        <v>64</v>
-      </c>
-      <c r="C20" s="97"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98">
-        <f t="shared" si="28" ref="E20:F20">SUM(E21:E24)</f>
+      <c r="C19" s="97"/>
+      <c r="D19" s="97"/>
+      <c r="E19" s="98">
+        <f t="shared" si="28" ref="E19:F19">SUM(E20:E23)</f>
         <v>158860</v>
       </c>
-      <c r="F20" s="99">
+      <c r="F19" s="99">
         <f t="shared" si="28"/>
-        <v>0.10295127862818038</v>
-      </c>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="98">
-        <f ca="1" t="shared" si="29" ref="I20:J20">SUM(I21:I24)</f>
+        <v>0.10471017836191782</v>
+      </c>
+      <c r="G19" s="100"/>
+      <c r="H19" s="101"/>
+      <c r="I19" s="98">
+        <f ca="1" t="shared" si="29" ref="I19:J19">SUM(I20:I23)</f>
         <v>138974</v>
       </c>
-      <c r="J20" s="98">
+      <c r="J19" s="98">
         <f t="shared" ca="1" si="29"/>
         <v>-19886</v>
       </c>
-      <c r="K20" s="102">
-        <f ca="1">J20/E20</f>
+      <c r="K19" s="102">
+        <f ca="1">J19/E19</f>
         <v>-0.12517940324814303</v>
       </c>
-      <c r="L20" s="103"/>
-      <c r="M20" s="104"/>
-      <c r="N20" s="104"/>
-      <c r="O20" s="105"/>
-      <c r="P20" s="106"/>
-      <c r="Q20" s="107"/>
-      <c r="R20" s="105"/>
-      <c r="S20" s="107"/>
-      <c r="T20" s="106"/>
-      <c r="U20" s="106"/>
-      <c r="V20" s="106"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="105"/>
-      <c r="Y20" s="108"/>
-      <c r="Z20" s="108"/>
-      <c r="AA20" s="108"/>
-      <c r="AB20" s="107"/>
-      <c r="AC20" s="109"/>
-      <c r="AD20" s="110"/>
-      <c r="AE20" s="110"/>
-      <c r="AF20" s="111"/>
-      <c r="AG20" s="112"/>
-      <c r="AH20" s="112"/>
-      <c r="AI20" s="113"/>
-      <c r="AJ20" s="159"/>
-    </row>
-    <row r="21" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A21" s="56">
+      <c r="L19" s="103"/>
+      <c r="M19" s="104"/>
+      <c r="N19" s="104"/>
+      <c r="O19" s="105"/>
+      <c r="P19" s="106"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="105"/>
+      <c r="S19" s="107"/>
+      <c r="T19" s="106"/>
+      <c r="U19" s="106"/>
+      <c r="V19" s="106"/>
+      <c r="W19" s="106"/>
+      <c r="X19" s="105"/>
+      <c r="Y19" s="108"/>
+      <c r="Z19" s="108"/>
+      <c r="AA19" s="108"/>
+      <c r="AB19" s="107"/>
+      <c r="AC19" s="109"/>
+      <c r="AD19" s="110"/>
+      <c r="AE19" s="110"/>
+      <c r="AF19" s="111"/>
+      <c r="AG19" s="112"/>
+      <c r="AH19" s="112"/>
+      <c r="AI19" s="113"/>
+      <c r="AJ19" s="159"/>
+    </row>
+    <row r="20" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A20" s="56">
         <v>1</v>
       </c>
-      <c r="B21" s="57" t="s">
-        <v>65</v>
-      </c>
-      <c r="C21" s="58">
+      <c r="B20" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="58">
         <v>224</v>
       </c>
-      <c r="D21" s="58">
+      <c r="D20" s="58">
         <v>225</v>
       </c>
-      <c r="E21" s="59">
-        <f t="shared" si="30" ref="E21:E24">C21*D21</f>
+      <c r="E20" s="59">
+        <f t="shared" si="30" ref="E20:E23">C20*D20</f>
         <v>50400</v>
       </c>
-      <c r="F21" s="60">
-        <f t="shared" si="31" ref="F21:F24">E21/$E$35</f>
-        <v>0.032662372169585112</v>
-      </c>
-      <c r="G21" s="61">
+      <c r="F20" s="60">
+        <f t="shared" si="31" ref="F20:F23">E20/$E$34</f>
+        <v>0.033220401545012324</v>
+      </c>
+      <c r="G20" s="61">
         <v>500400</v>
       </c>
-      <c r="H21" s="62">
+      <c r="H20" s="62">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500400"")"),351)</f>
         <v>351</v>
       </c>
-      <c r="I21" s="59">
-        <f ca="1" t="shared" si="32" ref="I21:I24">H21*D21</f>
+      <c r="I20" s="59">
+        <f ca="1" t="shared" si="32" ref="I20:I23">H20*D20</f>
         <v>78975</v>
       </c>
-      <c r="J21" s="42">
-        <f ca="1" t="shared" si="33" ref="J21:J24">I21-E21</f>
+      <c r="J20" s="42">
+        <f ca="1" t="shared" si="33" ref="J20:J23">I20-E20</f>
         <v>28575</v>
       </c>
-      <c r="K21" s="63">
-        <f ca="1">J21/E21</f>
+      <c r="K20" s="63">
+        <f ca="1">J20/E20</f>
         <v>0.5669642857142857</v>
       </c>
-      <c r="L21" s="64">
+      <c r="L20" s="64">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500400"",""marketcap"")/10^7"),112140.4612005)</f>
         <v>112140.46120049999</v>
       </c>
-      <c r="M21" s="65">
+      <c r="M20" s="65">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500400"",""PE"")"),29.36)</f>
         <v>29.359999999999999</v>
       </c>
-      <c r="N21" s="65">
+      <c r="N20" s="65">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500400"",""EPS"")"),11.94)</f>
         <v>11.94</v>
       </c>
-      <c r="O21" s="66">
+      <c r="O20" s="66">
         <v>63489</v>
       </c>
-      <c r="P21" s="67">
+      <c r="P20" s="67">
         <v>11057</v>
       </c>
-      <c r="Q21" s="68">
+      <c r="Q20" s="68">
         <v>0.17</v>
       </c>
-      <c r="R21" s="66">
+      <c r="R20" s="66">
         <v>3746</v>
       </c>
-      <c r="S21" s="68">
+      <c r="S20" s="68">
         <v>0.06</v>
       </c>
-      <c r="T21" s="67">
+      <c r="T20" s="67">
         <v>12596</v>
       </c>
-      <c r="U21" s="67">
+      <c r="U20" s="67">
         <v>42175</v>
       </c>
-      <c r="V21" s="67">
+      <c r="V20" s="67">
         <v>10285</v>
       </c>
-      <c r="W21" s="67">
+      <c r="W20" s="67">
         <v>2</v>
       </c>
-      <c r="X21" s="66">
+      <c r="X20" s="66">
         <v>101</v>
       </c>
-      <c r="Y21" s="69">
+      <c r="Y20" s="69">
         <v>0.23400000000000001</v>
       </c>
-      <c r="Z21" s="69">
+      <c r="Z20" s="69">
         <v>0.16</v>
       </c>
-      <c r="AA21" s="69">
+      <c r="AA20" s="69">
         <v>0.48559999999999998</v>
       </c>
-      <c r="AB21" s="68">
+      <c r="AB20" s="68">
         <v>0.56000000000000005</v>
       </c>
-      <c r="AC21" s="70">
-        <f ca="1" t="shared" si="34" ref="AC21:AC24">L21/O21</f>
+      <c r="AC20" s="70">
+        <f ca="1" t="shared" si="34" ref="AC20:AC23">L20/O20</f>
         <v>1.7662974877616595</v>
       </c>
-      <c r="AD21" s="89">
-        <f t="shared" si="35" ref="AD21:AD24">P21/T21</f>
+      <c r="AD20" s="89">
+        <f t="shared" si="35" ref="AD20:AD23">P20/T20</f>
         <v>0.87781835503334393</v>
       </c>
+      <c r="AE20" s="53">
+        <f t="shared" si="36" ref="AE20:AE23">R20/T20</f>
+        <v>0.29739599872975547</v>
+      </c>
+      <c r="AF20" s="82">
+        <f ca="1" t="shared" si="37" ref="AF20:AF23">H20/X20</f>
+        <v>3.4752475247524752</v>
+      </c>
+      <c r="AG20" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH20" s="65"/>
+      <c r="AI20" s="83"/>
+      <c r="AJ20" s="156" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="21" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A21" s="35">
+        <v>2</v>
+      </c>
+      <c r="B21" s="84" t="s">
+        <v>65</v>
+      </c>
+      <c r="C21" s="37">
+        <v>875</v>
+      </c>
+      <c r="D21" s="37">
+        <v>50</v>
+      </c>
+      <c r="E21" s="38">
+        <f t="shared" si="30"/>
+        <v>43750</v>
+      </c>
+      <c r="F21" s="39">
+        <f t="shared" si="31"/>
+        <v>0.028837154118934311</v>
+      </c>
+      <c r="G21" s="85">
+        <v>542323</v>
+      </c>
+      <c r="H21" s="41">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542323"")"),402.4)</f>
+        <v>402.39999999999998</v>
+      </c>
+      <c r="I21" s="38">
+        <f t="shared" ca="1" si="32"/>
+        <v>20120</v>
+      </c>
+      <c r="J21" s="80">
+        <f t="shared" ca="1" si="33"/>
+        <v>-23630</v>
+      </c>
+      <c r="K21" s="43">
+        <f ca="1">J21/E21</f>
+        <v>-0.54011428571428577</v>
+      </c>
+      <c r="L21" s="44">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542323"",""marketcap"")/10^7"),7915.00212)</f>
+        <v>7915.0021200000001</v>
+      </c>
+      <c r="M21" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542323"",""PE"")"),29.26)</f>
+        <v>29.260000000000002</v>
+      </c>
+      <c r="N21" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542323"",""EPS"")"),13.75)</f>
+        <v>13.75</v>
+      </c>
+      <c r="O21" s="46">
+        <v>1327</v>
+      </c>
+      <c r="P21" s="47">
+        <v>462</v>
+      </c>
+      <c r="Q21" s="48">
+        <v>0.35</v>
+      </c>
+      <c r="R21" s="46">
+        <v>230</v>
+      </c>
+      <c r="S21" s="48">
+        <v>0.17</v>
+      </c>
+      <c r="T21" s="49">
+        <v>-57</v>
+      </c>
+      <c r="U21" s="47">
+        <v>217</v>
+      </c>
+      <c r="V21" s="88">
+        <v>-761</v>
+      </c>
+      <c r="W21" s="47">
+        <v>1</v>
+      </c>
+      <c r="X21" s="46">
+        <v>73</v>
+      </c>
+      <c r="Y21" s="50">
+        <v>1.1552</v>
+      </c>
+      <c r="Z21" s="50">
+        <v>0.34470000000000001</v>
+      </c>
+      <c r="AA21" s="50">
+        <v>0.94650000000000001</v>
+      </c>
+      <c r="AB21" s="48">
+        <v>3.70</v>
+      </c>
+      <c r="AC21" s="115">
+        <f t="shared" ca="1" si="34"/>
+        <v>5.964583360964582</v>
+      </c>
+      <c r="AD21" s="52">
+        <f t="shared" si="35"/>
+        <v>-8.1052631578947363</v>
+      </c>
       <c r="AE21" s="53">
-        <f t="shared" si="36" ref="AE21:AE24">R21/T21</f>
-        <v>0.29739599872975547</v>
-      </c>
-      <c r="AF21" s="82">
-        <f ca="1" t="shared" si="37" ref="AF21:AF24">H21/X21</f>
-        <v>3.4752475247524752</v>
+        <f t="shared" si="36"/>
+        <v>-4.0350877192982457</v>
+      </c>
+      <c r="AF21" s="71">
+        <f t="shared" ca="1" si="37"/>
+        <v>5.5123287671232877</v>
       </c>
       <c r="AG21" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AH21" s="65"/>
-      <c r="AI21" s="83"/>
+      <c r="AH21" s="76"/>
+      <c r="AI21" s="117" t="s">
+        <v>53</v>
+      </c>
       <c r="AJ21" s="156" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="22" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A22" s="35">
-        <v>2</v>
-      </c>
-      <c r="B22" s="84" t="s">
+      <c r="A22" s="56">
+        <v>3</v>
+      </c>
+      <c r="B22" s="57" t="s">
         <v>66</v>
       </c>
-      <c r="C22" s="37">
-        <v>875</v>
-      </c>
-      <c r="D22" s="37">
-        <v>50</v>
-      </c>
-      <c r="E22" s="38">
+      <c r="C22" s="58">
+        <v>44</v>
+      </c>
+      <c r="D22" s="58">
+        <v>450</v>
+      </c>
+      <c r="E22" s="59">
         <f t="shared" si="30"/>
-        <v>43750</v>
-      </c>
-      <c r="F22" s="39">
+        <v>19800</v>
+      </c>
+      <c r="F22" s="60">
         <f t="shared" si="31"/>
-        <v>0.028352753619431518</v>
-      </c>
-      <c r="G22" s="85">
-        <v>542323</v>
-      </c>
-      <c r="H22" s="41">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542323"")"),402.4)</f>
-        <v>402.39999999999998</v>
-      </c>
-      <c r="I22" s="38">
+        <v>0.013050872035540556</v>
+      </c>
+      <c r="G22" s="59">
+        <v>532667</v>
+      </c>
+      <c r="H22" s="62">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532667"")"),51.36)</f>
+        <v>51.359999999999999</v>
+      </c>
+      <c r="I22" s="59">
         <f t="shared" ca="1" si="32"/>
-        <v>20120</v>
-      </c>
-      <c r="J22" s="80">
+        <v>23112</v>
+      </c>
+      <c r="J22" s="42">
         <f t="shared" ca="1" si="33"/>
-        <v>-23630</v>
-      </c>
-      <c r="K22" s="43">
+        <v>3312</v>
+      </c>
+      <c r="K22" s="63">
         <f ca="1">J22/E22</f>
-        <v>-0.54011428571428577</v>
-      </c>
-      <c r="L22" s="44">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542323"",""marketcap"")/10^7"),7915.00212)</f>
-        <v>7915.0021200000001</v>
-      </c>
-      <c r="M22" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542323"",""PE"")"),29.26)</f>
-        <v>29.260000000000002</v>
-      </c>
-      <c r="N22" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542323"",""EPS"")"),13.75)</f>
-        <v>13.75</v>
-      </c>
-      <c r="O22" s="46">
-        <v>1327</v>
-      </c>
-      <c r="P22" s="47">
-        <v>462</v>
-      </c>
-      <c r="Q22" s="48">
-        <v>0.35</v>
-      </c>
-      <c r="R22" s="46">
-        <v>230</v>
-      </c>
-      <c r="S22" s="48">
-        <v>0.17</v>
-      </c>
-      <c r="T22" s="49">
-        <v>-57</v>
-      </c>
-      <c r="U22" s="47">
-        <v>217</v>
-      </c>
-      <c r="V22" s="88">
-        <v>-761</v>
-      </c>
-      <c r="W22" s="47">
-        <v>1</v>
-      </c>
-      <c r="X22" s="46">
-        <v>73</v>
-      </c>
-      <c r="Y22" s="50">
-        <v>1.1552</v>
-      </c>
-      <c r="Z22" s="50">
-        <v>0.34470000000000001</v>
-      </c>
-      <c r="AA22" s="50">
-        <v>0.94650000000000001</v>
-      </c>
-      <c r="AB22" s="48">
-        <v>3.70</v>
+        <v>0.16727272727272727</v>
+      </c>
+      <c r="L22" s="64">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532667"",""marketcap"")/10^7"),70108.8661131)</f>
+        <v>70108.866113099997</v>
+      </c>
+      <c r="M22" s="81">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532667"",""PE"")"),61.25)</f>
+        <v>61.25</v>
+      </c>
+      <c r="N22" s="65">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532667"",""EPS"")"),0.84)</f>
+        <v>0.83999999999999997</v>
+      </c>
+      <c r="O22" s="66">
+        <v>7882</v>
+      </c>
+      <c r="P22" s="67">
+        <v>1269</v>
+      </c>
+      <c r="Q22" s="68">
+        <v>0.16</v>
+      </c>
+      <c r="R22" s="66">
+        <v>960</v>
+      </c>
+      <c r="S22" s="68">
+        <v>0.12</v>
+      </c>
+      <c r="T22" s="67">
+        <v>80</v>
+      </c>
+      <c r="U22" s="67">
+        <v>1474</v>
+      </c>
+      <c r="V22" s="67">
+        <v>2316</v>
+      </c>
+      <c r="W22" s="67">
+        <v>0</v>
+      </c>
+      <c r="X22" s="66">
+        <v>3</v>
+      </c>
+      <c r="Y22" s="69">
+        <v>0.24959999999999999</v>
+      </c>
+      <c r="Z22" s="69">
+        <v>0.1452</v>
+      </c>
+      <c r="AA22" s="69">
+        <v>0.85070000000000001</v>
+      </c>
+      <c r="AB22" s="68">
+        <v>1.24</v>
       </c>
       <c r="AC22" s="115">
         <f t="shared" ca="1" si="34"/>
-        <v>5.964583360964582</v>
-      </c>
-      <c r="AD22" s="52">
+        <v>8.8948066624080173</v>
+      </c>
+      <c r="AD22" s="89">
         <f t="shared" si="35"/>
-        <v>-8.1052631578947363</v>
-      </c>
-      <c r="AE22" s="53">
+        <v>15.862500000000001</v>
+      </c>
+      <c r="AE22" s="89">
         <f t="shared" si="36"/>
-        <v>-4.0350877192982457</v>
+        <v>12</v>
       </c>
       <c r="AF22" s="71">
         <f t="shared" ca="1" si="37"/>
-        <v>5.5123287671232877</v>
+        <v>17.120000000000001</v>
       </c>
       <c r="AG22" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AH22" s="76"/>
+      <c r="AH22" s="116"/>
       <c r="AI22" s="117" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="AJ22" s="156" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="23" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A23" s="56">
-        <v>3</v>
-      </c>
-      <c r="B23" s="57" t="s">
+      <c r="A23" s="35">
+        <v>4</v>
+      </c>
+      <c r="B23" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="C23" s="58">
-        <v>44</v>
-      </c>
-      <c r="D23" s="58">
-        <v>450</v>
-      </c>
-      <c r="E23" s="59">
+      <c r="C23" s="37">
+        <v>998</v>
+      </c>
+      <c r="D23" s="37">
+        <v>45</v>
+      </c>
+      <c r="E23" s="38">
         <f t="shared" si="30"/>
-        <v>19800</v>
-      </c>
-      <c r="F23" s="60">
+        <v>44910</v>
+      </c>
+      <c r="F23" s="39">
         <f t="shared" si="31"/>
-        <v>0.012831646209479864</v>
-      </c>
-      <c r="G23" s="59">
-        <v>532667</v>
-      </c>
-      <c r="H23" s="62">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532667"")"),51.36)</f>
-        <v>51.359999999999999</v>
-      </c>
-      <c r="I23" s="59">
+        <v>0.029601750662430627</v>
+      </c>
+      <c r="G23" s="85">
+        <v>542851</v>
+      </c>
+      <c r="H23" s="41">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542851"")"),372.6)</f>
+        <v>372.60000000000002</v>
+      </c>
+      <c r="I23" s="38">
         <f t="shared" ca="1" si="32"/>
-        <v>23112</v>
-      </c>
-      <c r="J23" s="42">
+        <v>16767</v>
+      </c>
+      <c r="J23" s="80">
         <f t="shared" ca="1" si="33"/>
-        <v>3312</v>
-      </c>
-      <c r="K23" s="63">
+        <v>-28143</v>
+      </c>
+      <c r="K23" s="43">
         <f ca="1">J23/E23</f>
-        <v>0.16727272727272727</v>
-      </c>
-      <c r="L23" s="64">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532667"",""marketcap"")/10^7"),70108.8661131)</f>
-        <v>70108.866113099997</v>
-      </c>
-      <c r="M23" s="81">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532667"",""PE"")"),61.25)</f>
-        <v>61.25</v>
-      </c>
-      <c r="N23" s="65">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""532667"",""EPS"")"),0.84)</f>
-        <v>0.83999999999999997</v>
-      </c>
-      <c r="O23" s="66">
-        <v>7882</v>
-      </c>
-      <c r="P23" s="67">
-        <v>1269</v>
-      </c>
-      <c r="Q23" s="68">
-        <v>0.16</v>
-      </c>
-      <c r="R23" s="66">
-        <v>960</v>
-      </c>
-      <c r="S23" s="68">
-        <v>0.12</v>
-      </c>
-      <c r="T23" s="67">
-        <v>80</v>
-      </c>
-      <c r="U23" s="67">
-        <v>1474</v>
-      </c>
-      <c r="V23" s="67">
-        <v>2316</v>
-      </c>
-      <c r="W23" s="67">
-        <v>0</v>
-      </c>
-      <c r="X23" s="66">
-        <v>3</v>
-      </c>
-      <c r="Y23" s="69">
-        <v>0.24959999999999999</v>
-      </c>
-      <c r="Z23" s="69">
-        <v>0.1452</v>
-      </c>
-      <c r="AA23" s="69">
-        <v>0.85070000000000001</v>
-      </c>
-      <c r="AB23" s="68">
-        <v>1.24</v>
+        <v>-0.62665330661322649</v>
+      </c>
+      <c r="L23" s="44">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""BORORENEW"",""marketcap"")/10^7"),6985.38265)</f>
+        <v>6985.3826499999996</v>
+      </c>
+      <c r="M23" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""BORORENEW"",""PE"")"),39.51)</f>
+        <v>39.509999999999998</v>
+      </c>
+      <c r="N23" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""BORORENEW"",""EPS"")"),5.57)</f>
+        <v>5.5700000000000003</v>
+      </c>
+      <c r="O23" s="46">
+        <v>1328</v>
+      </c>
+      <c r="P23" s="47">
+        <v>323</v>
+      </c>
+      <c r="Q23" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="R23" s="46">
+        <v>98</v>
+      </c>
+      <c r="S23" s="48">
+        <v>0.070000000000000007</v>
+      </c>
+      <c r="T23" s="49">
+        <v>-98</v>
+      </c>
+      <c r="U23" s="49">
+        <v>-42</v>
+      </c>
+      <c r="V23" s="88">
+        <v>-845</v>
+      </c>
+      <c r="W23" s="47">
+        <v>5</v>
+      </c>
+      <c r="X23" s="46">
+        <v>87</v>
+      </c>
+      <c r="Y23" s="50">
+        <v>1.4692000000000001</v>
+      </c>
+      <c r="Z23" s="50">
+        <v>0.215</v>
+      </c>
+      <c r="AA23" s="50">
+        <v>1.6528</v>
+      </c>
+      <c r="AB23" s="48">
+        <v>2.78</v>
       </c>
       <c r="AC23" s="115">
         <f t="shared" ca="1" si="34"/>
-        <v>8.8948066624080173</v>
-      </c>
-      <c r="AD23" s="89">
-        <f t="shared" si="35"/>
-        <v>15.862500000000001</v>
-      </c>
-      <c r="AE23" s="89">
-        <f t="shared" si="36"/>
-        <v>12</v>
-      </c>
-      <c r="AF23" s="71">
-        <f t="shared" ca="1" si="37"/>
-        <v>17.120000000000001</v>
-      </c>
-      <c r="AG23" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH23" s="116"/>
-      <c r="AI23" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ23" s="156" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="24" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A24" s="35">
-        <v>4</v>
-      </c>
-      <c r="B24" s="78" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" s="37">
-        <v>998</v>
-      </c>
-      <c r="D24" s="37">
-        <v>45</v>
-      </c>
-      <c r="E24" s="38">
-        <f t="shared" si="30"/>
-        <v>44910</v>
-      </c>
-      <c r="F24" s="39">
-        <f t="shared" si="31"/>
-        <v>0.029104506629683873</v>
-      </c>
-      <c r="G24" s="85">
-        <v>542851</v>
-      </c>
-      <c r="H24" s="41">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542851"")"),372.6)</f>
-        <v>372.60000000000002</v>
-      </c>
-      <c r="I24" s="38">
-        <f t="shared" ca="1" si="32"/>
-        <v>16767</v>
-      </c>
-      <c r="J24" s="80">
-        <f t="shared" ca="1" si="33"/>
-        <v>-28143</v>
-      </c>
-      <c r="K24" s="43">
-        <f ca="1">J24/E24</f>
-        <v>-0.62665330661322649</v>
-      </c>
-      <c r="L24" s="44">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""BORORENEW"",""marketcap"")/10^7"),6985.38265)</f>
-        <v>6985.3826499999996</v>
-      </c>
-      <c r="M24" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""BORORENEW"",""PE"")"),39.51)</f>
-        <v>39.509999999999998</v>
-      </c>
-      <c r="N24" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""BORORENEW"",""EPS"")"),5.57)</f>
-        <v>5.5700000000000003</v>
-      </c>
-      <c r="O24" s="46">
-        <v>1328</v>
-      </c>
-      <c r="P24" s="47">
-        <v>323</v>
-      </c>
-      <c r="Q24" s="48">
-        <v>0.24</v>
-      </c>
-      <c r="R24" s="46">
-        <v>98</v>
-      </c>
-      <c r="S24" s="48">
-        <v>0.070000000000000007</v>
-      </c>
-      <c r="T24" s="49">
-        <v>-98</v>
-      </c>
-      <c r="U24" s="49">
-        <v>-42</v>
-      </c>
-      <c r="V24" s="88">
-        <v>-845</v>
-      </c>
-      <c r="W24" s="47">
-        <v>5</v>
-      </c>
-      <c r="X24" s="46">
-        <v>87</v>
-      </c>
-      <c r="Y24" s="50">
-        <v>1.4692000000000001</v>
-      </c>
-      <c r="Z24" s="50">
-        <v>0.215</v>
-      </c>
-      <c r="AA24" s="50">
-        <v>1.6528</v>
-      </c>
-      <c r="AB24" s="48">
-        <v>2.78</v>
-      </c>
-      <c r="AC24" s="115">
-        <f t="shared" ca="1" si="34"/>
         <v>5.2600772966867471</v>
       </c>
-      <c r="AD24" s="52">
+      <c r="AD23" s="52">
         <f t="shared" si="35"/>
         <v>-3.295918367346939</v>
       </c>
-      <c r="AE24" s="53">
+      <c r="AE23" s="53">
         <f t="shared" si="36"/>
         <v>-1</v>
       </c>
-      <c r="AF24" s="54">
+      <c r="AF23" s="54">
         <f t="shared" ca="1" si="37"/>
         <v>4.2827586206896555</v>
       </c>
-      <c r="AG24" s="90" t="s">
+      <c r="AG23" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AH24" s="76"/>
-      <c r="AI24" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ24" s="156" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="25" spans="1:36" ht="15.75">
-      <c r="A25" s="95"/>
-      <c r="B25" s="96" t="s">
-        <v>69</v>
-      </c>
-      <c r="C25" s="97"/>
-      <c r="D25" s="97"/>
-      <c r="E25" s="98">
-        <f t="shared" si="38" ref="E25:F25">SUM(E26:E28)</f>
+      <c r="AH23" s="76"/>
+      <c r="AI23" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ23" s="156" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="24" spans="1:36" ht="15.75">
+      <c r="A24" s="95"/>
+      <c r="B24" s="96" t="s">
+        <v>68</v>
+      </c>
+      <c r="C24" s="97"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98">
+        <f t="shared" si="38" ref="E24:F24">SUM(E25:E27)</f>
         <v>198656</v>
       </c>
-      <c r="F25" s="99">
+      <c r="F24" s="99">
         <f t="shared" si="38"/>
-        <v>0.12874159138335514</v>
-      </c>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="98">
-        <f ca="1" t="shared" si="39" ref="I25:J25">SUM(I26:I28)</f>
+        <v>0.13094111288345175</v>
+      </c>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="98">
+        <f ca="1" t="shared" si="39" ref="I24:J24">SUM(I25:I27)</f>
         <v>235130.59999999998</v>
       </c>
-      <c r="J25" s="98">
+      <c r="J24" s="98">
         <f t="shared" ca="1" si="39"/>
         <v>36474.599999999991</v>
       </c>
-      <c r="K25" s="102">
-        <f ca="1">J25/E25</f>
+      <c r="K24" s="102">
+        <f ca="1">J24/E24</f>
         <v>0.18360683795103089</v>
       </c>
-      <c r="L25" s="103"/>
-      <c r="M25" s="104"/>
-      <c r="N25" s="104"/>
-      <c r="O25" s="105"/>
-      <c r="P25" s="106"/>
-      <c r="Q25" s="107"/>
-      <c r="R25" s="105"/>
-      <c r="S25" s="107"/>
-      <c r="T25" s="106"/>
-      <c r="U25" s="106"/>
-      <c r="V25" s="106"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="105"/>
-      <c r="Y25" s="108"/>
-      <c r="Z25" s="108"/>
-      <c r="AA25" s="108"/>
-      <c r="AB25" s="107"/>
-      <c r="AC25" s="109"/>
-      <c r="AD25" s="110"/>
-      <c r="AE25" s="110"/>
-      <c r="AF25" s="111"/>
-      <c r="AG25" s="118"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="119"/>
-      <c r="AJ25" s="159"/>
-    </row>
-    <row r="26" spans="1:36" ht="15.75" customHeight="1">
-      <c r="A26" s="35">
+      <c r="L24" s="103"/>
+      <c r="M24" s="104"/>
+      <c r="N24" s="104"/>
+      <c r="O24" s="105"/>
+      <c r="P24" s="106"/>
+      <c r="Q24" s="107"/>
+      <c r="R24" s="105"/>
+      <c r="S24" s="107"/>
+      <c r="T24" s="106"/>
+      <c r="U24" s="106"/>
+      <c r="V24" s="106"/>
+      <c r="W24" s="106"/>
+      <c r="X24" s="105"/>
+      <c r="Y24" s="108"/>
+      <c r="Z24" s="108"/>
+      <c r="AA24" s="108"/>
+      <c r="AB24" s="107"/>
+      <c r="AC24" s="109"/>
+      <c r="AD24" s="110"/>
+      <c r="AE24" s="110"/>
+      <c r="AF24" s="111"/>
+      <c r="AG24" s="118"/>
+      <c r="AH24" s="118"/>
+      <c r="AI24" s="119"/>
+      <c r="AJ24" s="159"/>
+    </row>
+    <row r="25" spans="1:36" ht="15.75" customHeight="1">
+      <c r="A25" s="35">
         <v>1</v>
       </c>
-      <c r="B26" s="84" t="s">
-        <v>70</v>
-      </c>
-      <c r="C26" s="37">
+      <c r="B25" s="84" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25" s="37">
         <v>580</v>
       </c>
-      <c r="D26" s="37">
+      <c r="D25" s="37">
         <v>60</v>
       </c>
-      <c r="E26" s="38">
-        <f t="shared" si="40" ref="E26:E28">C26*D26</f>
+      <c r="E25" s="38">
+        <f t="shared" si="40" ref="E25:E27">C25*D25</f>
         <v>34800</v>
       </c>
-      <c r="F26" s="39">
-        <f t="shared" si="41" ref="F26:F28">E26/$E$35</f>
-        <v>0.022552590307570671</v>
-      </c>
-      <c r="G26" s="85">
+      <c r="F25" s="39">
+        <f t="shared" si="41" ref="F25:F27">E25/$E$34</f>
+        <v>0.022937896304889464</v>
+      </c>
+      <c r="G25" s="85">
         <v>543517</v>
       </c>
-      <c r="H26" s="41">
+      <c r="H25" s="41">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543517"")"),355.75)</f>
         <v>355.75</v>
       </c>
-      <c r="I26" s="38">
-        <f ca="1" t="shared" si="42" ref="I26:I28">H26*D26</f>
+      <c r="I25" s="38">
+        <f ca="1" t="shared" si="42" ref="I25:I27">H25*D25</f>
         <v>21345</v>
       </c>
-      <c r="J26" s="80">
-        <f ca="1" t="shared" si="43" ref="J26:J28">I26-E26</f>
+      <c r="J25" s="80">
+        <f ca="1" t="shared" si="43" ref="J25:J27">I25-E25</f>
         <v>-13455</v>
       </c>
-      <c r="K26" s="43">
-        <f ca="1">J26/E26</f>
+      <c r="K25" s="43">
+        <f ca="1">J25/E25</f>
         <v>-0.38663793103448274</v>
       </c>
-      <c r="L26" s="44">
+      <c r="L25" s="44">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543517"",""marketcap"")/10^7"),1094.6937015)</f>
         <v>1094.6937015000001</v>
       </c>
-      <c r="M26" s="45">
+      <c r="M25" s="45">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543517"", ""PE"")"),17.98)</f>
         <v>17.98</v>
       </c>
-      <c r="N26" s="45">
+      <c r="N25" s="45">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543517"", ""EPS"")"),19.78)</f>
         <v>19.780000000000001</v>
       </c>
-      <c r="O26" s="46">
+      <c r="O25" s="46">
         <v>1268</v>
       </c>
-      <c r="P26" s="47">
+      <c r="P25" s="47">
         <v>162</v>
       </c>
-      <c r="Q26" s="48">
+      <c r="Q25" s="48">
         <v>0.13</v>
       </c>
-      <c r="R26" s="46">
+      <c r="R25" s="46">
         <v>60</v>
       </c>
-      <c r="S26" s="48">
+      <c r="S25" s="48">
         <v>0.05</v>
       </c>
-      <c r="T26" s="47">
+      <c r="T25" s="47">
         <v>5</v>
       </c>
-      <c r="U26" s="49">
+      <c r="U25" s="49">
         <v>-81</v>
       </c>
-      <c r="V26" s="88">
+      <c r="V25" s="88">
         <v>-417</v>
       </c>
-      <c r="W26" s="47">
+      <c r="W25" s="47">
         <v>1</v>
       </c>
-      <c r="X26" s="46">
+      <c r="X25" s="46">
         <v>164</v>
       </c>
-      <c r="Y26" s="50">
+      <c r="Y25" s="50">
         <v>0.65559999999999996</v>
       </c>
-      <c r="Z26" s="50">
+      <c r="Z25" s="50">
         <v>0.1242</v>
       </c>
-      <c r="AA26" s="50">
+      <c r="AA25" s="50">
         <v>0.55420000000000003</v>
       </c>
-      <c r="AB26" s="45"/>
-      <c r="AC26" s="51">
-        <f ca="1" t="shared" si="44" ref="AC26:AC28">L26/O26</f>
+      <c r="AB25" s="45"/>
+      <c r="AC25" s="51">
+        <f ca="1" t="shared" si="44" ref="AC25:AC27">L25/O25</f>
         <v>0.86332310843848592</v>
       </c>
-      <c r="AD26" s="75">
-        <f t="shared" si="45" ref="AD26:AD28">P26/T26</f>
+      <c r="AD25" s="75">
+        <f t="shared" si="45" ref="AD25:AD27">P25/T25</f>
         <v>32.399999999999999</v>
       </c>
-      <c r="AE26" s="75">
-        <f t="shared" si="46" ref="AE26:AE28">R26/T26</f>
+      <c r="AE25" s="75">
+        <f t="shared" si="46" ref="AE25:AE27">R25/T25</f>
         <v>12</v>
       </c>
-      <c r="AF26" s="54">
-        <f ca="1" t="shared" si="47" ref="AF26:AF28">H26/X26</f>
+      <c r="AF25" s="54">
+        <f ca="1" t="shared" si="47" ref="AF25:AF27">H25/X25</f>
         <v>2.1692073170731709</v>
+      </c>
+      <c r="AG25" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH25" s="76"/>
+      <c r="AI25" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ25" s="158" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="26" spans="1:36" ht="14.5">
+      <c r="A26" s="56">
+        <v>2</v>
+      </c>
+      <c r="B26" s="57" t="s">
+        <v>70</v>
+      </c>
+      <c r="C26" s="58">
+        <v>1517</v>
+      </c>
+      <c r="D26" s="58">
+        <v>56</v>
+      </c>
+      <c r="E26" s="59">
+        <f t="shared" si="40"/>
+        <v>84952</v>
+      </c>
+      <c r="F26" s="60">
+        <f t="shared" si="41"/>
+        <v>0.055994832381981885</v>
+      </c>
+      <c r="G26" s="79" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" s="62">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""ASTRAL"")"),1317.6)</f>
+        <v>1317.5999999999999</v>
+      </c>
+      <c r="I26" s="59">
+        <f t="shared" ca="1" si="42"/>
+        <v>73785.599999999991</v>
+      </c>
+      <c r="J26" s="80">
+        <f t="shared" ca="1" si="43"/>
+        <v>-11166.400000000009</v>
+      </c>
+      <c r="K26" s="63">
+        <f ca="1">J26/E26</f>
+        <v>-0.13144363876071202</v>
+      </c>
+      <c r="L26" s="64">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""ASTRAL"",""marketcap"")/10^7"),35397.9931073)</f>
+        <v>35397.993107299997</v>
+      </c>
+      <c r="M26" s="81">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""ASTRAL"",""PE"")"),67.13)</f>
+        <v>67.129999999999995</v>
+      </c>
+      <c r="N26" s="65">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""ASTRAL"",""EPS"")"),19.59)</f>
+        <v>19.59</v>
+      </c>
+      <c r="O26" s="66">
+        <v>5749</v>
+      </c>
+      <c r="P26" s="67">
+        <v>921</v>
+      </c>
+      <c r="Q26" s="68">
+        <v>0.16</v>
+      </c>
+      <c r="R26" s="66">
+        <v>526</v>
+      </c>
+      <c r="S26" s="68">
+        <v>0.09</v>
+      </c>
+      <c r="T26" s="67">
+        <v>823</v>
+      </c>
+      <c r="U26" s="67">
+        <v>2993</v>
+      </c>
+      <c r="V26" s="67">
+        <v>1729</v>
+      </c>
+      <c r="W26" s="67">
+        <v>0</v>
+      </c>
+      <c r="X26" s="66">
+        <v>119</v>
+      </c>
+      <c r="Y26" s="69">
+        <v>0.21099999999999999</v>
+      </c>
+      <c r="Z26" s="69">
+        <v>0.16370000000000001</v>
+      </c>
+      <c r="AA26" s="69">
+        <v>0.1053</v>
+      </c>
+      <c r="AB26" s="68">
+        <v>0.18</v>
+      </c>
+      <c r="AC26" s="115">
+        <f t="shared" ca="1" si="44"/>
+        <v>6.1572435392763953</v>
+      </c>
+      <c r="AD26" s="89">
+        <f t="shared" si="45"/>
+        <v>1.1190765492102066</v>
+      </c>
+      <c r="AE26" s="89">
+        <f t="shared" si="46"/>
+        <v>0.63912515188335361</v>
+      </c>
+      <c r="AF26" s="71">
+        <f t="shared" ca="1" si="47"/>
+        <v>11.072268907563025</v>
       </c>
       <c r="AG26" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AH26" s="76"/>
-      <c r="AI26" s="117" t="s">
-        <v>54</v>
-      </c>
+      <c r="AH26" s="116"/>
+      <c r="AI26" s="120"/>
       <c r="AJ26" s="158" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="27" spans="1:36" ht="14.5">
-      <c r="A27" s="56">
-        <v>2</v>
-      </c>
-      <c r="B27" s="57" t="s">
-        <v>71</v>
-      </c>
-      <c r="C27" s="58">
-        <v>1517</v>
-      </c>
-      <c r="D27" s="58">
-        <v>56</v>
-      </c>
-      <c r="E27" s="59">
+      <c r="A27" s="35">
+        <v>3</v>
+      </c>
+      <c r="B27" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="C27" s="37">
+        <v>2818</v>
+      </c>
+      <c r="D27" s="37">
+        <v>28</v>
+      </c>
+      <c r="E27" s="38">
         <f t="shared" si="40"/>
-        <v>84952</v>
-      </c>
-      <c r="F27" s="60">
+        <v>78904</v>
+      </c>
+      <c r="F27" s="39">
         <f t="shared" si="41"/>
-        <v>0.055054242868067343</v>
-      </c>
-      <c r="G27" s="79" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="62">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""ASTRAL"")"),1317.6)</f>
-        <v>1317.5999999999999</v>
-      </c>
-      <c r="I27" s="59">
+        <v>0.052008384196580409</v>
+      </c>
+      <c r="G27" s="85">
+        <v>542652</v>
+      </c>
+      <c r="H27" s="41">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542652"")"),5000)</f>
+        <v>5000</v>
+      </c>
+      <c r="I27" s="38">
         <f t="shared" ca="1" si="42"/>
-        <v>73785.599999999991</v>
-      </c>
-      <c r="J27" s="80">
+        <v>140000</v>
+      </c>
+      <c r="J27" s="42">
         <f t="shared" ca="1" si="43"/>
-        <v>-11166.400000000009</v>
-      </c>
-      <c r="K27" s="63">
+        <v>61096</v>
+      </c>
+      <c r="K27" s="43">
         <f ca="1">J27/E27</f>
-        <v>-0.13144363876071202</v>
-      </c>
-      <c r="L27" s="64">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""ASTRAL"",""marketcap"")/10^7"),35397.9931073)</f>
-        <v>35397.993107299997</v>
-      </c>
-      <c r="M27" s="81">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""ASTRAL"",""PE"")"),67.13)</f>
-        <v>67.129999999999995</v>
-      </c>
-      <c r="N27" s="65">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""ASTRAL"",""EPS"")"),19.59)</f>
-        <v>19.59</v>
-      </c>
-      <c r="O27" s="66">
-        <v>5749</v>
-      </c>
-      <c r="P27" s="67">
-        <v>921</v>
-      </c>
-      <c r="Q27" s="68">
-        <v>0.16</v>
-      </c>
-      <c r="R27" s="66">
-        <v>526</v>
-      </c>
-      <c r="S27" s="68">
+        <v>0.77430801987224984</v>
+      </c>
+      <c r="L27" s="44">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542652"",""marketcap"")/10^7"),75253.0712829)</f>
+        <v>75253.071282899997</v>
+      </c>
+      <c r="M27" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542652"",""PE"")"),40.91)</f>
+        <v>40.909999999999997</v>
+      </c>
+      <c r="N27" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542652"",""EPS"")"),121.97)</f>
+        <v>121.97</v>
+      </c>
+      <c r="O27" s="46">
+        <v>20129</v>
+      </c>
+      <c r="P27" s="47">
+        <v>2546</v>
+      </c>
+      <c r="Q27" s="48">
+        <v>0.13</v>
+      </c>
+      <c r="R27" s="46">
+        <v>1795</v>
+      </c>
+      <c r="S27" s="48">
         <v>0.09</v>
       </c>
-      <c r="T27" s="67">
-        <v>823</v>
-      </c>
-      <c r="U27" s="67">
-        <v>2993</v>
-      </c>
-      <c r="V27" s="67">
-        <v>1729</v>
-      </c>
-      <c r="W27" s="67">
+      <c r="T27" s="47">
+        <v>1296</v>
+      </c>
+      <c r="U27" s="47">
+        <v>4732</v>
+      </c>
+      <c r="V27" s="47">
+        <v>3285</v>
+      </c>
+      <c r="W27" s="47">
         <v>0</v>
       </c>
-      <c r="X27" s="66">
-        <v>119</v>
-      </c>
-      <c r="Y27" s="69">
-        <v>0.21099999999999999</v>
-      </c>
-      <c r="Z27" s="69">
-        <v>0.16370000000000001</v>
-      </c>
-      <c r="AA27" s="69">
-        <v>0.1053</v>
-      </c>
-      <c r="AB27" s="68">
-        <v>0.18</v>
-      </c>
-      <c r="AC27" s="115">
+      <c r="X27" s="46">
+        <v>546</v>
+      </c>
+      <c r="Y27" s="50">
+        <v>0.2707</v>
+      </c>
+      <c r="Z27" s="50">
+        <v>0.12620000000000001</v>
+      </c>
+      <c r="AA27" s="50">
+        <v>0.2646</v>
+      </c>
+      <c r="AB27" s="48">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC27" s="51">
         <f t="shared" ca="1" si="44"/>
-        <v>6.1572435392763953</v>
-      </c>
-      <c r="AD27" s="89">
+        <v>3.7385399812658351</v>
+      </c>
+      <c r="AD27" s="75">
         <f t="shared" si="45"/>
-        <v>1.1190765492102066</v>
-      </c>
-      <c r="AE27" s="89">
+        <v>1.9645061728395061</v>
+      </c>
+      <c r="AE27" s="75">
         <f t="shared" si="46"/>
-        <v>0.63912515188335361</v>
+        <v>1.3850308641975309</v>
       </c>
       <c r="AF27" s="71">
         <f t="shared" ca="1" si="47"/>
-        <v>11.072268907563025</v>
-      </c>
-      <c r="AG27" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH27" s="116"/>
-      <c r="AI27" s="120"/>
+        <v>9.1575091575091569</v>
+      </c>
+      <c r="AG27" s="76" t="s">
+        <v>40</v>
+      </c>
+      <c r="AH27" s="76"/>
+      <c r="AI27" s="77"/>
       <c r="AJ27" s="158" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="28" spans="1:36" ht="14.5">
-      <c r="A28" s="35">
-        <v>3</v>
-      </c>
-      <c r="B28" s="36" t="s">
+      <c r="A28" s="16"/>
+      <c r="B28" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="C28" s="37">
-        <v>2818</v>
-      </c>
-      <c r="D28" s="37">
-        <v>28</v>
-      </c>
-      <c r="E28" s="38">
-        <f t="shared" si="40"/>
-        <v>78904</v>
-      </c>
-      <c r="F28" s="39">
-        <f t="shared" si="41"/>
-        <v>0.051134758207717131</v>
-      </c>
-      <c r="G28" s="85">
-        <v>542652</v>
-      </c>
-      <c r="H28" s="41">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542652"")"),5000)</f>
-        <v>5000</v>
-      </c>
-      <c r="I28" s="38">
-        <f t="shared" ca="1" si="42"/>
-        <v>140000</v>
-      </c>
-      <c r="J28" s="42">
-        <f t="shared" ca="1" si="43"/>
-        <v>61096</v>
-      </c>
-      <c r="K28" s="43">
-        <f ca="1">J28/E28</f>
-        <v>0.77430801987224984</v>
-      </c>
-      <c r="L28" s="44">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542652"",""marketcap"")/10^7"),75253.0712829)</f>
-        <v>75253.071282899997</v>
-      </c>
-      <c r="M28" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542652"",""PE"")"),40.91)</f>
-        <v>40.909999999999997</v>
-      </c>
-      <c r="N28" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""542652"",""EPS"")"),121.97)</f>
-        <v>121.97</v>
-      </c>
-      <c r="O28" s="46">
-        <v>20129</v>
-      </c>
-      <c r="P28" s="47">
-        <v>2546</v>
-      </c>
-      <c r="Q28" s="48">
-        <v>0.13</v>
-      </c>
-      <c r="R28" s="46">
-        <v>1795</v>
-      </c>
-      <c r="S28" s="48">
-        <v>0.09</v>
-      </c>
-      <c r="T28" s="47">
-        <v>1296</v>
-      </c>
-      <c r="U28" s="47">
-        <v>4732</v>
-      </c>
-      <c r="V28" s="47">
-        <v>3285</v>
-      </c>
-      <c r="W28" s="47">
-        <v>0</v>
-      </c>
-      <c r="X28" s="46">
-        <v>546</v>
-      </c>
-      <c r="Y28" s="50">
-        <v>0.2707</v>
-      </c>
-      <c r="Z28" s="50">
-        <v>0.12620000000000001</v>
-      </c>
-      <c r="AA28" s="50">
-        <v>0.2646</v>
-      </c>
-      <c r="AB28" s="48">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AC28" s="51">
-        <f t="shared" ca="1" si="44"/>
-        <v>3.7385399812658351</v>
-      </c>
-      <c r="AD28" s="75">
-        <f t="shared" si="45"/>
-        <v>1.9645061728395061</v>
-      </c>
-      <c r="AE28" s="75">
-        <f t="shared" si="46"/>
-        <v>1.3850308641975309</v>
-      </c>
-      <c r="AF28" s="71">
-        <f t="shared" ca="1" si="47"/>
-        <v>9.1575091575091569</v>
-      </c>
-      <c r="AG28" s="76" t="s">
-        <v>40</v>
-      </c>
-      <c r="AH28" s="76"/>
-      <c r="AI28" s="77"/>
-      <c r="AJ28" s="158" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="29" spans="1:36" ht="14.5">
-      <c r="A29" s="16"/>
-      <c r="B29" s="17" t="s">
-        <v>74</v>
-      </c>
-      <c r="C29" s="121"/>
-      <c r="D29" s="121"/>
-      <c r="E29" s="19">
-        <f t="shared" si="48" ref="E29:F29">SUM(E30:E34)</f>
+      <c r="C28" s="121"/>
+      <c r="D28" s="121"/>
+      <c r="E28" s="19">
+        <f t="shared" si="48" ref="E28:F28">SUM(E29:E33)</f>
         <v>255709</v>
       </c>
-      <c r="F29" s="20">
+      <c r="F28" s="20">
         <f t="shared" si="48"/>
-        <v>0.1657155262919135</v>
-      </c>
-      <c r="G29" s="122"/>
-      <c r="H29" s="22"/>
-      <c r="I29" s="19">
-        <f ca="1" t="shared" si="49" ref="I29:J29">SUM(I30:I34)</f>
+        <v>0.16854673925939598</v>
+      </c>
+      <c r="G28" s="122"/>
+      <c r="H28" s="22"/>
+      <c r="I28" s="19">
+        <f ca="1" t="shared" si="49" ref="I28:J28">SUM(I29:I33)</f>
         <v>233320.35000000003</v>
       </c>
-      <c r="J29" s="19">
+      <c r="J28" s="19">
         <f t="shared" ca="1" si="49"/>
         <v>-22388.649999999994</v>
       </c>
-      <c r="K29" s="23">
-        <f ca="1">J29/E29</f>
+      <c r="K28" s="23">
+        <f ca="1">J28/E28</f>
         <v>-0.087555189688278454</v>
       </c>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
-      <c r="N29" s="25"/>
-      <c r="O29" s="26"/>
-      <c r="P29" s="27"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="26"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="27"/>
-      <c r="U29" s="27"/>
-      <c r="V29" s="27"/>
-      <c r="W29" s="27"/>
-      <c r="X29" s="26"/>
-      <c r="Y29" s="29"/>
-      <c r="Z29" s="29"/>
-      <c r="AA29" s="29"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="30"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="32"/>
-      <c r="AG29" s="33"/>
-      <c r="AH29" s="33"/>
-      <c r="AI29" s="34"/>
-      <c r="AJ29" s="155"/>
-    </row>
-    <row r="30" spans="1:36" ht="14.5">
-      <c r="A30" s="35">
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="25"/>
+      <c r="O28" s="26"/>
+      <c r="P28" s="27"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="26"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="27"/>
+      <c r="V28" s="27"/>
+      <c r="W28" s="27"/>
+      <c r="X28" s="26"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="30"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="32"/>
+      <c r="AG28" s="33"/>
+      <c r="AH28" s="33"/>
+      <c r="AI28" s="34"/>
+      <c r="AJ28" s="155"/>
+    </row>
+    <row r="29" spans="1:36" ht="14.5">
+      <c r="A29" s="35">
         <v>1</v>
       </c>
-      <c r="B30" s="84" t="s">
-        <v>75</v>
-      </c>
-      <c r="C30" s="37">
+      <c r="B29" s="84" t="s">
+        <v>74</v>
+      </c>
+      <c r="C29" s="37">
         <v>1610</v>
       </c>
-      <c r="D30" s="37">
+      <c r="D29" s="37">
         <v>32</v>
       </c>
-      <c r="E30" s="38">
-        <f t="shared" si="50" ref="E30:E34">C30*D30</f>
+      <c r="E29" s="38">
+        <f t="shared" si="50" ref="E29:E33">C29*D29</f>
         <v>51520</v>
       </c>
-      <c r="F30" s="39">
-        <f t="shared" si="51" ref="F30:F35">E30/$E$35</f>
-        <v>0.033388202662242558</v>
-      </c>
-      <c r="G30" s="85">
+      <c r="F29" s="39">
+        <f t="shared" si="51" ref="F29:F34">E29/$E$34</f>
+        <v>0.033958632690457041</v>
+      </c>
+      <c r="G29" s="85">
         <v>543318</v>
       </c>
-      <c r="H30" s="41">
+      <c r="H29" s="41">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543318"")"),1237.45)</f>
         <v>1237.45</v>
       </c>
-      <c r="I30" s="38">
-        <f ca="1" t="shared" si="52" ref="I30:I34">H30*D30</f>
+      <c r="I29" s="38">
+        <f ca="1" t="shared" si="52" ref="I29:I33">H29*D29</f>
         <v>39598.400000000001</v>
       </c>
-      <c r="J30" s="80">
-        <f ca="1" t="shared" si="53" ref="J30:J34">I30-E30</f>
+      <c r="J29" s="80">
+        <f ca="1" t="shared" si="53" ref="J29:J33">I29-E29</f>
         <v>-11921.599999999999</v>
       </c>
-      <c r="K30" s="43">
-        <f ca="1">J30/E30</f>
+      <c r="K29" s="43">
+        <f ca="1">J29/E29</f>
         <v>-0.23139751552795029</v>
       </c>
-      <c r="L30" s="44">
+      <c r="L29" s="44">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543318"",""marketcap"")/10^7"),13158.0899442)</f>
         <v>13158.089944200001</v>
       </c>
-      <c r="M30" s="45">
+      <c r="M29" s="45">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543318"",""PE"")"),50.37)</f>
         <v>50.369999999999997</v>
       </c>
-      <c r="N30" s="45">
+      <c r="N29" s="45">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543318"",""EPS"")"),24.52)</f>
         <v>24.52</v>
       </c>
-      <c r="O30" s="46">
+      <c r="O29" s="46">
         <v>884</v>
       </c>
-      <c r="P30" s="47">
+      <c r="P29" s="47">
         <v>365</v>
       </c>
-      <c r="Q30" s="48">
+      <c r="Q29" s="48">
         <v>0.41</v>
       </c>
-      <c r="R30" s="46">
+      <c r="R29" s="46">
         <v>258</v>
       </c>
-      <c r="S30" s="48">
+      <c r="S29" s="48">
         <v>0.28999999999999998</v>
       </c>
-      <c r="T30" s="47">
+      <c r="T29" s="47">
         <v>237</v>
       </c>
-      <c r="U30" s="47">
+      <c r="U29" s="47">
         <v>997</v>
       </c>
-      <c r="V30" s="47">
+      <c r="V29" s="47">
         <v>434</v>
       </c>
-      <c r="W30" s="47">
+      <c r="W29" s="47">
         <v>0</v>
       </c>
-      <c r="X30" s="46">
+      <c r="X29" s="46">
         <v>113</v>
       </c>
-      <c r="Y30" s="50">
+      <c r="Y29" s="50">
         <v>0.15590000000000001</v>
       </c>
-      <c r="Z30" s="50">
+      <c r="Z29" s="50">
         <v>0.42909999999999998</v>
       </c>
-      <c r="AA30" s="50">
+      <c r="AA29" s="50">
         <v>0.071499999999999994</v>
       </c>
-      <c r="AB30" s="45"/>
-      <c r="AC30" s="115">
-        <f ca="1" t="shared" si="54" ref="AC30:AC34">L30/O30</f>
+      <c r="AB29" s="45"/>
+      <c r="AC29" s="115">
+        <f ca="1" t="shared" si="54" ref="AC29:AC33">L29/O29</f>
         <v>14.884717131447966</v>
       </c>
-      <c r="AD30" s="75">
-        <f t="shared" si="55" ref="AD30:AD34">P30/T30</f>
+      <c r="AD29" s="75">
+        <f t="shared" si="55" ref="AD29:AD33">P29/T29</f>
         <v>1.5400843881856541</v>
       </c>
-      <c r="AE30" s="75">
-        <f t="shared" si="56" ref="AE30:AE34">R30/T30</f>
+      <c r="AE29" s="75">
+        <f t="shared" si="56" ref="AE29:AE33">R29/T29</f>
         <v>1.0886075949367089</v>
       </c>
-      <c r="AF30" s="71">
-        <f ca="1" t="shared" si="57" ref="AF30:AF34">H30/X30</f>
+      <c r="AF29" s="71">
+        <f ca="1" t="shared" si="57" ref="AF29:AF33">H29/X29</f>
         <v>10.950884955752214</v>
       </c>
-      <c r="AG30" s="72" t="s">
+      <c r="AG29" s="72" t="s">
         <v>2</v>
       </c>
-      <c r="AH30" s="76"/>
-      <c r="AI30" s="158" t="s">
-        <v>74</v>
-      </c>
+      <c r="AH29" s="76"/>
+      <c r="AI29" s="158" t="s">
+        <v>73</v>
+      </c>
+      <c r="AJ29" s="158" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="30" spans="1:36" ht="14.5">
+      <c r="A30" s="56">
+        <v>2</v>
+      </c>
+      <c r="B30" s="78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C30" s="58">
+        <v>2248</v>
+      </c>
+      <c r="D30" s="58">
+        <v>27</v>
+      </c>
+      <c r="E30" s="59">
+        <f t="shared" si="50"/>
+        <v>60696</v>
+      </c>
+      <c r="F30" s="60">
+        <f t="shared" si="51"/>
+        <v>0.040006855003493415</v>
+      </c>
+      <c r="G30" s="79">
+        <v>506401</v>
+      </c>
+      <c r="H30" s="62">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""506401"")"),1927.9)</f>
+        <v>1927.9000000000001</v>
+      </c>
+      <c r="I30" s="59">
+        <f t="shared" ca="1" si="52"/>
+        <v>52053.300000000003</v>
+      </c>
+      <c r="J30" s="80">
+        <f t="shared" ca="1" si="53"/>
+        <v>-8642.6999999999971</v>
+      </c>
+      <c r="K30" s="63">
+        <f ca="1">J30/E30</f>
+        <v>-0.14239323843416365</v>
+      </c>
+      <c r="L30" s="64">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""marketcap"")/10^7"),16138.14228)</f>
+        <v>16138.14228</v>
+      </c>
+      <c r="M30" s="65">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""PE"")"),41.86)</f>
+        <v>41.859999999999999</v>
+      </c>
+      <c r="N30" s="65">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""EPS"")"),37.26)</f>
+        <v>37.259999999999998</v>
+      </c>
+      <c r="O30" s="66">
+        <v>8334</v>
+      </c>
+      <c r="P30" s="67">
+        <v>1212</v>
+      </c>
+      <c r="Q30" s="68">
+        <v>0.15</v>
+      </c>
+      <c r="R30" s="66">
+        <v>853</v>
+      </c>
+      <c r="S30" s="68">
+        <v>0.10</v>
+      </c>
+      <c r="T30" s="67">
+        <v>878</v>
+      </c>
+      <c r="U30" s="67">
+        <v>4118</v>
+      </c>
+      <c r="V30" s="67">
+        <v>2802</v>
+      </c>
+      <c r="W30" s="67">
+        <v>0</v>
+      </c>
+      <c r="X30" s="66">
+        <v>352</v>
+      </c>
+      <c r="Y30" s="69">
+        <v>0.20780000000000001</v>
+      </c>
+      <c r="Z30" s="69">
+        <v>0.17929999999999999</v>
+      </c>
+      <c r="AA30" s="69">
+        <v>0.0149</v>
+      </c>
+      <c r="AB30" s="68">
+        <v>0.09</v>
+      </c>
+      <c r="AC30" s="70">
+        <f t="shared" ca="1" si="54"/>
+        <v>1.9364221598272138</v>
+      </c>
+      <c r="AD30" s="89">
+        <f t="shared" si="55"/>
+        <v>1.3804100227790432</v>
+      </c>
+      <c r="AE30" s="89">
+        <f t="shared" si="56"/>
+        <v>0.97152619589977218</v>
+      </c>
+      <c r="AF30" s="82">
+        <f t="shared" ca="1" si="57"/>
+        <v>5.4769886363636369</v>
+      </c>
+      <c r="AG30" s="90" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH30" s="65"/>
+      <c r="AI30" s="83"/>
       <c r="AJ30" s="158" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:36" ht="14.5">
-      <c r="A31" s="56">
-        <v>2</v>
+      <c r="A31" s="35">
+        <v>3</v>
       </c>
       <c r="B31" s="78" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="58">
-        <v>2248</v>
-      </c>
-      <c r="D31" s="58">
-        <v>27</v>
-      </c>
-      <c r="E31" s="59">
+      <c r="C31" s="37">
+        <v>4284</v>
+      </c>
+      <c r="D31" s="37">
+        <v>16</v>
+      </c>
+      <c r="E31" s="38">
         <f t="shared" si="50"/>
-        <v>60696</v>
-      </c>
-      <c r="F31" s="60">
+        <v>68544</v>
+      </c>
+      <c r="F31" s="39">
         <f t="shared" si="51"/>
-        <v>0.039334828198514638</v>
-      </c>
-      <c r="G31" s="79">
-        <v>506401</v>
-      </c>
-      <c r="H31" s="62">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""506401"")"),1927.9)</f>
-        <v>1927.9000000000001</v>
-      </c>
-      <c r="I31" s="59">
+        <v>0.045179746101216764</v>
+      </c>
+      <c r="G31" s="85">
+        <v>541557</v>
+      </c>
+      <c r="H31" s="41">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""541557"")"),3743)</f>
+        <v>3743</v>
+      </c>
+      <c r="I31" s="38">
         <f t="shared" ca="1" si="52"/>
-        <v>52053.300000000003</v>
+        <v>59888</v>
       </c>
       <c r="J31" s="80">
         <f t="shared" ca="1" si="53"/>
-        <v>-8642.6999999999971</v>
-      </c>
-      <c r="K31" s="63">
+        <v>-8656</v>
+      </c>
+      <c r="K31" s="43">
         <f ca="1">J31/E31</f>
-        <v>-0.14239323843416365</v>
-      </c>
-      <c r="L31" s="64">
+        <v>-0.12628384687208216</v>
+      </c>
+      <c r="L31" s="44">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""marketcap"")/10^7"),16138.14228)</f>
         <v>16138.14228</v>
       </c>
-      <c r="M31" s="65">
+      <c r="M31" s="45">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""PE"")"),41.86)</f>
         <v>41.859999999999999</v>
       </c>
-      <c r="N31" s="65">
+      <c r="N31" s="45">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""EPS"")"),37.26)</f>
         <v>37.259999999999998</v>
       </c>
-      <c r="O31" s="66">
-        <v>8334</v>
-      </c>
-      <c r="P31" s="67">
-        <v>1212</v>
-      </c>
-      <c r="Q31" s="68">
-        <v>0.15</v>
-      </c>
-      <c r="R31" s="66">
-        <v>853</v>
-      </c>
-      <c r="S31" s="68">
-        <v>0.10</v>
-      </c>
-      <c r="T31" s="67">
-        <v>878</v>
-      </c>
-      <c r="U31" s="67">
-        <v>4118</v>
-      </c>
-      <c r="V31" s="67">
-        <v>2802</v>
-      </c>
-      <c r="W31" s="67">
+      <c r="O31" s="46">
+        <v>2051</v>
+      </c>
+      <c r="P31" s="47">
+        <v>489</v>
+      </c>
+      <c r="Q31" s="48">
+        <v>0.24</v>
+      </c>
+      <c r="R31" s="46">
+        <v>386</v>
+      </c>
+      <c r="S31" s="48">
+        <v>0.19</v>
+      </c>
+      <c r="T31" s="47">
+        <v>606</v>
+      </c>
+      <c r="U31" s="47">
+        <v>1466</v>
+      </c>
+      <c r="V31" s="47">
+        <v>1388</v>
+      </c>
+      <c r="W31" s="47">
         <v>0</v>
       </c>
-      <c r="X31" s="66">
-        <v>352</v>
-      </c>
-      <c r="Y31" s="69">
-        <v>0.20780000000000001</v>
-      </c>
-      <c r="Z31" s="69">
-        <v>0.17929999999999999</v>
-      </c>
-      <c r="AA31" s="69">
-        <v>0.0149</v>
-      </c>
-      <c r="AB31" s="68">
-        <v>0.09</v>
-      </c>
-      <c r="AC31" s="70">
+      <c r="X31" s="46">
+        <v>606</v>
+      </c>
+      <c r="Y31" s="50">
+        <v>0.20280000000000001</v>
+      </c>
+      <c r="Z31" s="50">
+        <v>0.23549999999999999</v>
+      </c>
+      <c r="AA31" s="50">
+        <v>0.4733</v>
+      </c>
+      <c r="AB31" s="48">
+        <v>0.21</v>
+      </c>
+      <c r="AC31" s="115">
         <f t="shared" ca="1" si="54"/>
-        <v>1.9364221598272138</v>
-      </c>
-      <c r="AD31" s="89">
+        <v>7.8684262701121401</v>
+      </c>
+      <c r="AD31" s="75">
         <f t="shared" si="55"/>
-        <v>1.3804100227790432</v>
-      </c>
-      <c r="AE31" s="89">
+        <v>0.80693069306930698</v>
+      </c>
+      <c r="AE31" s="75">
         <f t="shared" si="56"/>
-        <v>0.97152619589977218</v>
-      </c>
-      <c r="AF31" s="82">
+        <v>0.63696369636963701</v>
+      </c>
+      <c r="AF31" s="54">
         <f t="shared" ca="1" si="57"/>
-        <v>5.4769886363636369</v>
+        <v>6.1765676567656769</v>
       </c>
       <c r="AG31" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AH31" s="65"/>
-      <c r="AI31" s="83"/>
+      <c r="AH31" s="45"/>
+      <c r="AI31" s="55"/>
       <c r="AJ31" s="158" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:36" ht="14.5">
-      <c r="A32" s="35">
-        <v>3</v>
+      <c r="A32" s="56">
+        <v>4</v>
       </c>
       <c r="B32" s="78" t="s">
         <v>77</v>
       </c>
-      <c r="C32" s="37">
-        <v>4284</v>
-      </c>
-      <c r="D32" s="37">
-        <v>16</v>
-      </c>
-      <c r="E32" s="38">
+      <c r="C32" s="58">
+        <v>2037</v>
+      </c>
+      <c r="D32" s="58">
+        <v>8</v>
+      </c>
+      <c r="E32" s="59">
         <f t="shared" si="50"/>
-        <v>68544</v>
-      </c>
-      <c r="F32" s="39">
+        <v>16296</v>
+      </c>
+      <c r="F32" s="60">
         <f t="shared" si="51"/>
-        <v>0.04442082615063575</v>
-      </c>
-      <c r="G32" s="85">
-        <v>541557</v>
-      </c>
-      <c r="H32" s="41">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""541557"")"),3743)</f>
-        <v>3743</v>
-      </c>
-      <c r="I32" s="38">
+        <v>0.010741263166220653</v>
+      </c>
+      <c r="G32" s="79">
+        <v>533282</v>
+      </c>
+      <c r="H32" s="62">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""533282"")"),1614.2)</f>
+        <v>1614.2</v>
+      </c>
+      <c r="I32" s="59">
         <f t="shared" ca="1" si="52"/>
-        <v>59888</v>
+        <v>12913.6</v>
       </c>
       <c r="J32" s="80">
         <f t="shared" ca="1" si="53"/>
-        <v>-8656</v>
-      </c>
-      <c r="K32" s="43">
+        <v>-3382.3999999999996</v>
+      </c>
+      <c r="K32" s="63">
         <f ca="1">J32/E32</f>
-        <v>-0.12628384687208216</v>
-      </c>
-      <c r="L32" s="44">
+        <v>-0.20756013745704466</v>
+      </c>
+      <c r="L32" s="64">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""marketcap"")/10^7"),16138.14228)</f>
         <v>16138.14228</v>
       </c>
-      <c r="M32" s="45">
+      <c r="M32" s="65">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""PE"")"),41.86)</f>
         <v>41.859999999999999</v>
       </c>
-      <c r="N32" s="45">
+      <c r="N32" s="65">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""EPS"")"),37.26)</f>
         <v>37.259999999999998</v>
       </c>
-      <c r="O32" s="46">
-        <v>2051</v>
-      </c>
-      <c r="P32" s="47">
-        <v>489</v>
-      </c>
-      <c r="Q32" s="48">
-        <v>0.24</v>
-      </c>
-      <c r="R32" s="46">
-        <v>386</v>
-      </c>
-      <c r="S32" s="48">
-        <v>0.19</v>
-      </c>
-      <c r="T32" s="47">
-        <v>606</v>
-      </c>
-      <c r="U32" s="47">
-        <v>1466</v>
-      </c>
-      <c r="V32" s="47">
-        <v>1388</v>
-      </c>
-      <c r="W32" s="47">
-        <v>0</v>
-      </c>
-      <c r="X32" s="46">
-        <v>606</v>
-      </c>
-      <c r="Y32" s="50">
-        <v>0.20280000000000001</v>
-      </c>
-      <c r="Z32" s="50">
-        <v>0.23549999999999999</v>
-      </c>
-      <c r="AA32" s="50">
-        <v>0.4733</v>
-      </c>
-      <c r="AB32" s="48">
-        <v>0.21</v>
+      <c r="O32" s="67">
+        <v>3456</v>
+      </c>
+      <c r="P32" s="67">
+        <v>304</v>
+      </c>
+      <c r="Q32" s="114">
+        <v>0.09</v>
+      </c>
+      <c r="R32" s="66">
+        <v>269</v>
+      </c>
+      <c r="S32" s="68">
+        <v>0.08</v>
+      </c>
+      <c r="T32" s="67">
+        <v>42</v>
+      </c>
+      <c r="U32" s="67">
+        <v>362</v>
+      </c>
+      <c r="V32" s="67">
+        <v>154</v>
+      </c>
+      <c r="W32" s="67">
+        <v>1</v>
+      </c>
+      <c r="X32" s="66">
+        <v>121</v>
+      </c>
+      <c r="Y32" s="69">
+        <v>0.30880000000000002</v>
+      </c>
+      <c r="Z32" s="69">
+        <v>0.087099999999999997</v>
+      </c>
+      <c r="AA32" s="69">
+        <v>0.65810000000000002</v>
+      </c>
+      <c r="AB32" s="68">
+        <v>1.23</v>
       </c>
       <c r="AC32" s="115">
         <f t="shared" ca="1" si="54"/>
-        <v>7.8684262701121401</v>
-      </c>
-      <c r="AD32" s="75">
+        <v>4.6696013541666668</v>
+      </c>
+      <c r="AD32" s="89">
         <f t="shared" si="55"/>
-        <v>0.80693069306930698</v>
-      </c>
-      <c r="AE32" s="75">
+        <v>7.2380952380952381</v>
+      </c>
+      <c r="AE32" s="89">
         <f t="shared" si="56"/>
-        <v>0.63696369636963701</v>
-      </c>
-      <c r="AF32" s="54">
+        <v>6.4047619047619051</v>
+      </c>
+      <c r="AF32" s="82">
         <f t="shared" ca="1" si="57"/>
-        <v>6.1765676567656769</v>
+        <v>13.340495867768595</v>
       </c>
       <c r="AG32" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="AH32" s="45"/>
-      <c r="AI32" s="55"/>
+      <c r="AH32" s="65"/>
+      <c r="AI32" s="83"/>
       <c r="AJ32" s="158" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="33" spans="1:36" ht="14.5">
-      <c r="A33" s="56">
-        <v>4</v>
-      </c>
-      <c r="B33" s="78" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:36" ht="14.5" thickBot="1">
+      <c r="A33" s="35">
+        <v>5</v>
+      </c>
+      <c r="B33" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="58">
-        <v>2037</v>
-      </c>
-      <c r="D33" s="58">
-        <v>8</v>
-      </c>
-      <c r="E33" s="59">
+      <c r="C33" s="37">
+        <v>1197</v>
+      </c>
+      <c r="D33" s="37">
+        <v>49</v>
+      </c>
+      <c r="E33" s="38">
         <f t="shared" si="50"/>
-        <v>16296</v>
-      </c>
-      <c r="F33" s="60">
+        <v>58653</v>
+      </c>
+      <c r="F33" s="39">
         <f t="shared" si="51"/>
-        <v>0.010560833668165853</v>
-      </c>
-      <c r="G33" s="79">
-        <v>533282</v>
-      </c>
-      <c r="H33" s="62">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""533282"")"),1614.2)</f>
-        <v>1614.2</v>
-      </c>
-      <c r="I33" s="59">
+        <v>0.038660242298008095</v>
+      </c>
+      <c r="G33" s="85">
+        <v>540719</v>
+      </c>
+      <c r="H33" s="41">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""540719"")"),1405.45)</f>
+        <v>1405.45</v>
+      </c>
+      <c r="I33" s="38">
         <f t="shared" ca="1" si="52"/>
-        <v>12913.6</v>
-      </c>
-      <c r="J33" s="80">
+        <v>68867.050000000003</v>
+      </c>
+      <c r="J33" s="42">
         <f t="shared" ca="1" si="53"/>
-        <v>-3382.3999999999996</v>
-      </c>
-      <c r="K33" s="63">
+        <v>10214.050000000003</v>
+      </c>
+      <c r="K33" s="43">
         <f ca="1">J33/E33</f>
-        <v>-0.20756013745704466</v>
-      </c>
-      <c r="L33" s="64">
+        <v>0.17414369256474524</v>
+      </c>
+      <c r="L33" s="44">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""540768"",""marketcap"")/10^7"),1824.9982828)</f>
+        <v>1824.9982828</v>
+      </c>
+      <c r="M33" s="45" t="str">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""540768"",""PE"")"),"#N/A")</f>
+        <v>#N/A</v>
+      </c>
+      <c r="N33" s="45">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""540768"",""EPS"")"),-5.82)</f>
+        <v>-5.8200000000000003</v>
+      </c>
+      <c r="O33" s="46">
+        <v>150243</v>
+      </c>
+      <c r="P33" s="47">
+        <v>763</v>
+      </c>
+      <c r="Q33" s="114">
+        <v>0.01</v>
+      </c>
+      <c r="R33" s="46">
+        <v>2181</v>
+      </c>
+      <c r="S33" s="114">
+        <v>0.01</v>
+      </c>
+      <c r="T33" s="47">
+        <v>29122</v>
+      </c>
+      <c r="U33" s="47">
+        <v>122806</v>
+      </c>
+      <c r="V33" s="47">
+        <v>122197</v>
+      </c>
+      <c r="W33" s="47">
+        <v>0</v>
+      </c>
+      <c r="X33" s="46">
+        <v>149</v>
+      </c>
+      <c r="Y33" s="50">
+        <v>0.1724</v>
+      </c>
+      <c r="Z33" s="50">
+        <v>0.0037000000000000002</v>
+      </c>
+      <c r="AA33" s="50">
+        <v>0.091600000000000001</v>
+      </c>
+      <c r="AB33" s="48">
+        <v>0.19</v>
+      </c>
+      <c r="AC33" s="51">
+        <f t="shared" ca="1" si="54"/>
+        <v>0.01214697711573917</v>
+      </c>
+      <c r="AD33" s="52">
+        <f t="shared" si="55"/>
+        <v>0.026200123617883386</v>
+      </c>
+      <c r="AE33" s="53">
+        <f t="shared" si="56"/>
+        <v>0.074891834352036266</v>
+      </c>
+      <c r="AF33" s="71">
+        <f t="shared" ca="1" si="57"/>
+        <v>9.4325503355704701</v>
+      </c>
+      <c r="AG33" s="72" t="s">
+        <v>2</v>
+      </c>
+      <c r="AH33" s="76"/>
+      <c r="AI33" s="117" t="s">
+        <v>53</v>
+      </c>
+      <c r="AJ33" s="158"/>
+    </row>
+    <row r="34" spans="1:36" ht="14" thickTop="1">
+      <c r="A34" s="123"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="125"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="126">
+        <f>E28+E24+E19+E15+E8+E3</f>
+        <v>1517140</v>
+      </c>
+      <c r="F34" s="126">
+        <f t="shared" si="51"/>
+        <v>1</v>
+      </c>
+      <c r="G34" s="126"/>
+      <c r="H34" s="126"/>
+      <c r="I34" s="126">
+        <f ca="1" t="shared" si="58" ref="I34:J34">I28+I24+I19+I15+I8+I3</f>
+        <v>1575360.8500000001</v>
+      </c>
+      <c r="J34" s="126">
+        <f t="shared" ca="1" si="58"/>
+        <v>58220.849999999984</v>
+      </c>
+      <c r="K34" s="127">
+        <f ca="1">J34/E34</f>
+        <v>0.038375397128808143</v>
+      </c>
+      <c r="L34" s="126"/>
+      <c r="M34" s="126"/>
+      <c r="N34" s="126"/>
+      <c r="O34" s="128"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="128"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="128"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="129"/>
+      <c r="Y34" s="128"/>
+      <c r="Z34" s="128"/>
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="128"/>
+      <c r="AD34" s="128"/>
+      <c r="AE34" s="128"/>
+      <c r="AF34" s="128"/>
+      <c r="AG34" s="128"/>
+      <c r="AH34" s="128"/>
+      <c r="AI34" s="130"/>
+      <c r="AJ34" s="160"/>
+    </row>
+    <row r="35" spans="8:24" ht="12.5">
+      <c r="H35" s="131"/>
+      <c r="J35" s="132"/>
+      <c r="X35" s="133"/>
+    </row>
+    <row r="36" spans="8:33" ht="12.5">
+      <c r="H36" s="131"/>
+      <c r="X36" s="133"/>
+      <c r="AG36" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:36" ht="14.5">
+      <c r="A37" s="134">
+        <v>7</v>
+      </c>
+      <c r="B37" s="134" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="135">
+        <v>1647</v>
+      </c>
+      <c r="D37" s="135">
+        <v>36</v>
+      </c>
+      <c r="E37" s="136">
+        <f t="shared" si="59" ref="E37:E39">C37*D37</f>
+        <v>59292</v>
+      </c>
+      <c r="F37" s="137">
+        <f t="shared" si="60" ref="F37:F39">E37/$E$34</f>
+        <v>0.039081429531882358</v>
+      </c>
+      <c r="G37" s="138">
+        <v>500209</v>
+      </c>
+      <c r="H37" s="139">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500209"")"),1725.3)</f>
+        <v>1725.3</v>
+      </c>
+      <c r="I37" s="136">
+        <f ca="1" t="shared" si="61" ref="I37:I39">H37*D37</f>
+        <v>62110.799999999996</v>
+      </c>
+      <c r="J37" s="136">
+        <f ca="1" t="shared" si="62" ref="J37:J39">I37-E37</f>
+        <v>2818.7999999999956</v>
+      </c>
+      <c r="K37" s="140">
+        <f ca="1" t="shared" si="63" ref="K37:K39">J37/E37</f>
+        <v>0.047540983606557306</v>
+      </c>
+      <c r="L37" s="141">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500209"",""marketcap"")/10^7"),713971.5159649)</f>
+        <v>713971.51596490003</v>
+      </c>
+      <c r="M37" s="142">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500209"",""PE"")"),25.86)</f>
+        <v>25.859999999999999</v>
+      </c>
+      <c r="N37" s="142">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500209"",""EPS"")"),66.63)</f>
+        <v>66.629999999999995</v>
+      </c>
+      <c r="O37" s="143">
+        <v>157045</v>
+      </c>
+      <c r="P37" s="144">
+        <v>37167</v>
+      </c>
+      <c r="Q37" s="145">
+        <v>0.24</v>
+      </c>
+      <c r="R37" s="143">
+        <v>26949</v>
+      </c>
+      <c r="S37" s="145">
+        <v>0.17</v>
+      </c>
+      <c r="T37" s="144">
+        <v>25210</v>
+      </c>
+      <c r="U37" s="144">
+        <v>111789</v>
+      </c>
+      <c r="V37" s="144">
+        <v>100972</v>
+      </c>
+      <c r="W37" s="144">
+        <v>0</v>
+      </c>
+      <c r="X37" s="143">
+        <v>212</v>
+      </c>
+      <c r="Y37" s="146">
+        <v>0.1522</v>
+      </c>
+      <c r="Z37" s="146">
+        <v>0.24410000000000001</v>
+      </c>
+      <c r="AA37" s="146">
+        <v>0.1067</v>
+      </c>
+      <c r="AB37" s="145">
+        <v>0.02</v>
+      </c>
+      <c r="AC37" s="147">
+        <f ca="1" t="shared" si="64" ref="AC37:AC39">L37/O37</f>
+        <v>4.5462861979999367</v>
+      </c>
+      <c r="AD37" s="148">
+        <f t="shared" si="65" ref="AD37:AD39">P37/T37</f>
+        <v>1.4742959143197143</v>
+      </c>
+      <c r="AE37" s="148">
+        <f t="shared" si="66" ref="AE37:AE39">R37/T37</f>
+        <v>1.0689805632685443</v>
+      </c>
+      <c r="AF37" s="149">
+        <f ca="1" t="shared" si="67" ref="AF37:AF39">H37/X37</f>
+        <v>8.1382075471698112</v>
+      </c>
+      <c r="AG37" s="142">
+        <v>1920</v>
+      </c>
+      <c r="AH37" s="142">
+        <f ca="1" t="shared" si="68" ref="AH37:AH39">(H37-AG37)*D37</f>
+        <v>-7009.2000000000016</v>
+      </c>
+      <c r="AI37" s="142"/>
+      <c r="AJ37" s="142"/>
+    </row>
+    <row r="38" spans="1:36" ht="14.5">
+      <c r="A38" s="134">
+        <v>10</v>
+      </c>
+      <c r="B38" s="134" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="135">
+        <v>1103</v>
+      </c>
+      <c r="D38" s="135">
+        <v>45</v>
+      </c>
+      <c r="E38" s="136">
+        <f t="shared" si="59"/>
+        <v>49635</v>
+      </c>
+      <c r="F38" s="137">
+        <f t="shared" si="60"/>
+        <v>0.032716163307275531</v>
+      </c>
+      <c r="G38" s="150">
+        <v>543237</v>
+      </c>
+      <c r="H38" s="139">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543227"")"),701.65)</f>
+        <v>701.64999999999998</v>
+      </c>
+      <c r="I38" s="136">
+        <f t="shared" ca="1" si="61"/>
+        <v>31574.25</v>
+      </c>
+      <c r="J38" s="136">
+        <f t="shared" ca="1" si="62"/>
+        <v>-18060.75</v>
+      </c>
+      <c r="K38" s="140">
+        <f t="shared" ca="1" si="63"/>
+        <v>-0.36387126019945604</v>
+      </c>
+      <c r="L38" s="141">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543227"",""marketcap"")/10^7"),10517.7128164)</f>
+        <v>10517.712816400001</v>
+      </c>
+      <c r="M38" s="142">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543227"",""PE"")"),47.41)</f>
+        <v>47.409999999999997</v>
+      </c>
+      <c r="N38" s="142">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543227"",""EPS"")"),14.8)</f>
+        <v>14.800000000000001</v>
+      </c>
+      <c r="O38" s="143">
+        <v>1493</v>
+      </c>
+      <c r="P38" s="144">
+        <v>256</v>
+      </c>
+      <c r="Q38" s="145">
+        <v>0.17</v>
+      </c>
+      <c r="R38" s="143">
+        <v>216</v>
+      </c>
+      <c r="S38" s="145">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="T38" s="144">
+        <v>189</v>
+      </c>
+      <c r="U38" s="144">
+        <v>783</v>
+      </c>
+      <c r="V38" s="144">
+        <v>641</v>
+      </c>
+      <c r="W38" s="144">
+        <v>0</v>
+      </c>
+      <c r="X38" s="143">
+        <v>99</v>
+      </c>
+      <c r="Y38" s="146">
+        <v>0.2462</v>
+      </c>
+      <c r="Z38" s="146">
+        <v>0.2228</v>
+      </c>
+      <c r="AA38" s="146">
+        <v>0.1492</v>
+      </c>
+      <c r="AB38" s="145">
+        <v>0.13</v>
+      </c>
+      <c r="AC38" s="147">
+        <f t="shared" ca="1" si="64"/>
+        <v>7.0446837350301408</v>
+      </c>
+      <c r="AD38" s="148">
+        <f t="shared" si="65"/>
+        <v>1.3544973544973544</v>
+      </c>
+      <c r="AE38" s="148">
+        <f t="shared" si="66"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="AF38" s="149">
+        <f t="shared" ca="1" si="67"/>
+        <v>7.0873737373737375</v>
+      </c>
+      <c r="AG38" s="142">
+        <v>716</v>
+      </c>
+      <c r="AH38" s="142">
+        <f t="shared" ca="1" si="68"/>
+        <v>-645.75000000000102</v>
+      </c>
+      <c r="AI38" s="142" t="s">
+        <v>60</v>
+      </c>
+      <c r="AJ38" s="142"/>
+    </row>
+    <row r="39" spans="1:36" ht="14.5">
+      <c r="A39" s="134">
+        <v>5</v>
+      </c>
+      <c r="B39" s="134" t="s">
+        <v>82</v>
+      </c>
+      <c r="C39" s="135">
+        <v>20</v>
+      </c>
+      <c r="D39" s="135">
+        <v>1332</v>
+      </c>
+      <c r="E39" s="136">
+        <f t="shared" si="59"/>
+        <v>26640</v>
+      </c>
+      <c r="F39" s="137">
+        <f t="shared" si="60"/>
+        <v>0.017559355102363658</v>
+      </c>
+      <c r="G39" s="150">
+        <v>543272</v>
+      </c>
+      <c r="H39" s="139">
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543272"")"),11.51)</f>
+        <v>11.51</v>
+      </c>
+      <c r="I39" s="136">
+        <f t="shared" ca="1" si="61"/>
+        <v>15331.32</v>
+      </c>
+      <c r="J39" s="136">
+        <f t="shared" ca="1" si="62"/>
+        <v>-11308.68</v>
+      </c>
+      <c r="K39" s="140">
+        <f t="shared" ca="1" si="63"/>
+        <v>-0.42449999999999999</v>
+      </c>
+      <c r="L39" s="141">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""marketcap"")/10^7"),16138.14228)</f>
         <v>16138.14228</v>
       </c>
-      <c r="M33" s="65">
+      <c r="M39" s="142">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""PE"")"),41.86)</f>
         <v>41.859999999999999</v>
       </c>
-      <c r="N33" s="65">
+      <c r="N39" s="142">
         <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""EPS"")"),37.26)</f>
         <v>37.259999999999998</v>
       </c>
-      <c r="O33" s="67">
-        <v>3456</v>
-      </c>
-      <c r="P33" s="67">
-        <v>304</v>
-      </c>
-      <c r="Q33" s="114">
-        <v>0.09</v>
-      </c>
-      <c r="R33" s="66">
-        <v>269</v>
-      </c>
-      <c r="S33" s="68">
-        <v>0.08</v>
-      </c>
-      <c r="T33" s="67">
-        <v>42</v>
-      </c>
-      <c r="U33" s="67">
-        <v>362</v>
-      </c>
-      <c r="V33" s="67">
-        <v>154</v>
-      </c>
-      <c r="W33" s="67">
-        <v>1</v>
-      </c>
-      <c r="X33" s="66">
-        <v>121</v>
-      </c>
-      <c r="Y33" s="69">
-        <v>0.30880000000000002</v>
-      </c>
-      <c r="Z33" s="69">
-        <v>0.087099999999999997</v>
-      </c>
-      <c r="AA33" s="69">
-        <v>0.65810000000000002</v>
-      </c>
-      <c r="AB33" s="68">
-        <v>1.23</v>
-      </c>
-      <c r="AC33" s="115">
-        <f t="shared" ca="1" si="54"/>
-        <v>4.6696013541666668</v>
-      </c>
-      <c r="AD33" s="89">
-        <f t="shared" si="55"/>
-        <v>7.2380952380952381</v>
-      </c>
-      <c r="AE33" s="89">
-        <f t="shared" si="56"/>
-        <v>6.4047619047619051</v>
-      </c>
-      <c r="AF33" s="82">
-        <f t="shared" ca="1" si="57"/>
-        <v>13.340495867768595</v>
-      </c>
-      <c r="AG33" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH33" s="65"/>
-      <c r="AI33" s="83"/>
-      <c r="AJ33" s="158" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="34" spans="1:36" ht="14.5" thickBot="1">
-      <c r="A34" s="35">
-        <v>5</v>
-      </c>
-      <c r="B34" s="36" t="s">
-        <v>79</v>
-      </c>
-      <c r="C34" s="37">
-        <v>1197</v>
-      </c>
-      <c r="D34" s="37">
-        <v>49</v>
-      </c>
-      <c r="E34" s="38">
-        <f t="shared" si="50"/>
-        <v>58653</v>
-      </c>
-      <c r="F34" s="39">
-        <f t="shared" si="51"/>
-        <v>0.038010835612354674</v>
-      </c>
-      <c r="G34" s="85">
-        <v>540719</v>
-      </c>
-      <c r="H34" s="41">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""540719"")"),1405.45)</f>
-        <v>1405.45</v>
-      </c>
-      <c r="I34" s="38">
-        <f t="shared" ca="1" si="52"/>
-        <v>68867.050000000003</v>
-      </c>
-      <c r="J34" s="42">
-        <f t="shared" ca="1" si="53"/>
-        <v>10214.050000000003</v>
-      </c>
-      <c r="K34" s="43">
-        <f ca="1">J34/E34</f>
-        <v>0.17414369256474524</v>
-      </c>
-      <c r="L34" s="44">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""540768"",""marketcap"")/10^7"),1824.9982828)</f>
-        <v>1824.9982828</v>
-      </c>
-      <c r="M34" s="45" t="str">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""540768"",""PE"")"),"#N/A")</f>
-        <v>#N/A</v>
-      </c>
-      <c r="N34" s="45">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""540768"",""EPS"")"),-5.82)</f>
-        <v>-5.8200000000000003</v>
-      </c>
-      <c r="O34" s="46">
-        <v>150243</v>
-      </c>
-      <c r="P34" s="47">
-        <v>763</v>
-      </c>
-      <c r="Q34" s="114">
-        <v>0.01</v>
-      </c>
-      <c r="R34" s="46">
-        <v>2181</v>
-      </c>
-      <c r="S34" s="114">
-        <v>0.01</v>
-      </c>
-      <c r="T34" s="47">
-        <v>29122</v>
-      </c>
-      <c r="U34" s="47">
-        <v>122806</v>
-      </c>
-      <c r="V34" s="47">
-        <v>122197</v>
-      </c>
-      <c r="W34" s="47">
-        <v>0</v>
-      </c>
-      <c r="X34" s="46">
-        <v>149</v>
-      </c>
-      <c r="Y34" s="50">
-        <v>0.1724</v>
-      </c>
-      <c r="Z34" s="50">
-        <v>0.0037000000000000002</v>
-      </c>
-      <c r="AA34" s="50">
-        <v>0.091600000000000001</v>
-      </c>
-      <c r="AB34" s="48">
-        <v>0.19</v>
-      </c>
-      <c r="AC34" s="51">
-        <f t="shared" ca="1" si="54"/>
-        <v>0.01214697711573917</v>
-      </c>
-      <c r="AD34" s="52">
-        <f t="shared" si="55"/>
-        <v>0.026200123617883386</v>
-      </c>
-      <c r="AE34" s="53">
-        <f t="shared" si="56"/>
-        <v>0.074891834352036266</v>
-      </c>
-      <c r="AF34" s="71">
-        <f t="shared" ca="1" si="57"/>
-        <v>9.4325503355704701</v>
-      </c>
-      <c r="AG34" s="72" t="s">
-        <v>2</v>
-      </c>
-      <c r="AH34" s="76"/>
-      <c r="AI34" s="117" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ34" s="158"/>
-    </row>
-    <row r="35" spans="1:36" ht="14" thickTop="1">
-      <c r="A35" s="123"/>
-      <c r="B35" s="124"/>
-      <c r="C35" s="125"/>
-      <c r="D35" s="125"/>
-      <c r="E35" s="126">
-        <f>E29+E25+E20+E16+E9+E3</f>
-        <v>1543060</v>
-      </c>
-      <c r="F35" s="126">
-        <f t="shared" si="51"/>
-        <v>1</v>
-      </c>
-      <c r="G35" s="126"/>
-      <c r="H35" s="126"/>
-      <c r="I35" s="126">
-        <f ca="1" t="shared" si="58" ref="I35:J35">I29+I25+I20+I16+I9+I3</f>
-        <v>1591409.6499999999</v>
-      </c>
-      <c r="J35" s="126">
-        <f t="shared" ca="1" si="58"/>
-        <v>48349.649999999987</v>
-      </c>
-      <c r="K35" s="127">
-        <f ca="1">J35/E35</f>
-        <v>0.031333616320817069</v>
-      </c>
-      <c r="L35" s="126"/>
-      <c r="M35" s="126"/>
-      <c r="N35" s="126"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="128"/>
-      <c r="X35" s="129"/>
-      <c r="Y35" s="128"/>
-      <c r="Z35" s="128"/>
-      <c r="AA35" s="128"/>
-      <c r="AB35" s="128"/>
-      <c r="AC35" s="128"/>
-      <c r="AD35" s="128"/>
-      <c r="AE35" s="128"/>
-      <c r="AF35" s="128"/>
-      <c r="AG35" s="128"/>
-      <c r="AH35" s="128"/>
-      <c r="AI35" s="130"/>
-      <c r="AJ35" s="160"/>
-    </row>
-    <row r="36" spans="8:24" ht="12.5">
-      <c r="H36" s="131"/>
-      <c r="J36" s="132"/>
-      <c r="X36" s="133"/>
-    </row>
-    <row r="37" spans="8:33" ht="12.5">
-      <c r="H37" s="131"/>
-      <c r="X37" s="133"/>
-      <c r="AG37" s="2" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="38" spans="1:36" ht="14.5">
-      <c r="A38" s="134">
-        <v>7</v>
-      </c>
-      <c r="B38" s="134" t="s">
-        <v>81</v>
-      </c>
-      <c r="C38" s="135">
-        <v>1647</v>
-      </c>
-      <c r="D38" s="135">
-        <v>36</v>
-      </c>
-      <c r="E38" s="136">
-        <f t="shared" si="59" ref="E38:E40">C38*D38</f>
-        <v>59292</v>
-      </c>
-      <c r="F38" s="137">
-        <f t="shared" si="60" ref="F38:F40">E38/$E$35</f>
-        <v>0.038424947830933337</v>
-      </c>
-      <c r="G38" s="138">
-        <v>500209</v>
-      </c>
-      <c r="H38" s="139">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500209"")"),1725.3)</f>
-        <v>1725.3</v>
-      </c>
-      <c r="I38" s="136">
-        <f ca="1" t="shared" si="61" ref="I38:I40">H38*D38</f>
-        <v>62110.799999999996</v>
-      </c>
-      <c r="J38" s="136">
-        <f ca="1" t="shared" si="62" ref="J38:J40">I38-E38</f>
-        <v>2818.7999999999956</v>
-      </c>
-      <c r="K38" s="140">
-        <f ca="1" t="shared" si="63" ref="K38:K40">J38/E38</f>
-        <v>0.047540983606557306</v>
-      </c>
-      <c r="L38" s="141">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500209"",""marketcap"")/10^7"),713971.5159649)</f>
-        <v>713971.51596490003</v>
-      </c>
-      <c r="M38" s="142">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500209"",""PE"")"),25.86)</f>
-        <v>25.859999999999999</v>
-      </c>
-      <c r="N38" s="142">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""500209"",""EPS"")"),66.63)</f>
-        <v>66.629999999999995</v>
-      </c>
-      <c r="O38" s="143">
-        <v>157045</v>
-      </c>
-      <c r="P38" s="144">
-        <v>37167</v>
-      </c>
-      <c r="Q38" s="145">
-        <v>0.24</v>
-      </c>
-      <c r="R38" s="143">
-        <v>26949</v>
-      </c>
-      <c r="S38" s="145">
-        <v>0.17</v>
-      </c>
-      <c r="T38" s="144">
-        <v>25210</v>
-      </c>
-      <c r="U38" s="144">
-        <v>111789</v>
-      </c>
-      <c r="V38" s="144">
-        <v>100972</v>
-      </c>
-      <c r="W38" s="144">
-        <v>0</v>
-      </c>
-      <c r="X38" s="143">
-        <v>212</v>
-      </c>
-      <c r="Y38" s="146">
-        <v>0.1522</v>
-      </c>
-      <c r="Z38" s="146">
-        <v>0.24410000000000001</v>
-      </c>
-      <c r="AA38" s="146">
-        <v>0.1067</v>
-      </c>
-      <c r="AB38" s="145">
-        <v>0.02</v>
-      </c>
-      <c r="AC38" s="147">
-        <f ca="1" t="shared" si="64" ref="AC38:AC40">L38/O38</f>
-        <v>4.5462861979999367</v>
-      </c>
-      <c r="AD38" s="148">
-        <f t="shared" si="65" ref="AD38:AD40">P38/T38</f>
-        <v>1.4742959143197143</v>
-      </c>
-      <c r="AE38" s="148">
-        <f t="shared" si="66" ref="AE38:AE40">R38/T38</f>
-        <v>1.0689805632685443</v>
-      </c>
-      <c r="AF38" s="149">
-        <f ca="1" t="shared" si="67" ref="AF38:AF40">H38/X38</f>
-        <v>8.1382075471698112</v>
-      </c>
-      <c r="AG38" s="142">
-        <v>1920</v>
-      </c>
-      <c r="AH38" s="142">
-        <f ca="1" t="shared" si="68" ref="AH38:AH40">(H38-AG38)*D38</f>
-        <v>-7009.2000000000016</v>
-      </c>
-      <c r="AI38" s="142"/>
-      <c r="AJ38" s="142"/>
-    </row>
-    <row r="39" spans="1:36" ht="14.5">
-      <c r="A39" s="134">
-        <v>10</v>
-      </c>
-      <c r="B39" s="134" t="s">
-        <v>82</v>
-      </c>
-      <c r="C39" s="135">
-        <v>1103</v>
-      </c>
-      <c r="D39" s="135">
-        <v>45</v>
-      </c>
-      <c r="E39" s="136">
-        <f t="shared" si="59"/>
-        <v>49635</v>
-      </c>
-      <c r="F39" s="137">
-        <f t="shared" si="60"/>
-        <v>0.032166604020582482</v>
-      </c>
-      <c r="G39" s="150">
-        <v>543237</v>
-      </c>
-      <c r="H39" s="139">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543227"")"),701.65)</f>
-        <v>701.64999999999998</v>
-      </c>
-      <c r="I39" s="136">
-        <f t="shared" ca="1" si="61"/>
-        <v>31574.25</v>
-      </c>
-      <c r="J39" s="136">
-        <f t="shared" ca="1" si="62"/>
-        <v>-18060.75</v>
-      </c>
-      <c r="K39" s="140">
-        <f t="shared" ca="1" si="63"/>
-        <v>-0.36387126019945604</v>
-      </c>
-      <c r="L39" s="141">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543227"",""marketcap"")/10^7"),10517.7128164)</f>
-        <v>10517.712816400001</v>
-      </c>
-      <c r="M39" s="142">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543227"",""PE"")"),47.41)</f>
-        <v>47.409999999999997</v>
-      </c>
-      <c r="N39" s="142">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543227"",""EPS"")"),14.8)</f>
-        <v>14.800000000000001</v>
-      </c>
       <c r="O39" s="143">
-        <v>1493</v>
+        <v>468</v>
       </c>
       <c r="P39" s="144">
-        <v>256</v>
+        <v>194</v>
       </c>
       <c r="Q39" s="145">
-        <v>0.17</v>
+        <v>0.42</v>
       </c>
       <c r="R39" s="143">
-        <v>216</v>
+        <v>104</v>
       </c>
       <c r="S39" s="145">
-        <v>0.14000000000000001</v>
+        <v>0.22</v>
       </c>
       <c r="T39" s="144">
-        <v>189</v>
+        <v>114</v>
       </c>
       <c r="U39" s="144">
-        <v>783</v>
+        <v>161</v>
       </c>
       <c r="V39" s="144">
-        <v>641</v>
+        <v>165</v>
       </c>
       <c r="W39" s="144">
         <v>0</v>
       </c>
       <c r="X39" s="143">
-        <v>99</v>
+        <v>2</v>
       </c>
       <c r="Y39" s="146">
-        <v>0.2462</v>
+        <v>0.515</v>
       </c>
       <c r="Z39" s="146">
-        <v>0.2228</v>
+        <v>0.4698</v>
       </c>
       <c r="AA39" s="146">
-        <v>0.1492</v>
+        <v>0.24149999999999999</v>
       </c>
       <c r="AB39" s="145">
-        <v>0.13</v>
+        <v>0.50</v>
       </c>
       <c r="AC39" s="147">
         <f t="shared" ca="1" si="64"/>
-        <v>7.0446837350301408</v>
+        <v>34.48321</v>
       </c>
       <c r="AD39" s="148">
         <f t="shared" si="65"/>
-        <v>1.3544973544973544</v>
+        <v>1.7017543859649122</v>
       </c>
       <c r="AE39" s="148">
         <f t="shared" si="66"/>
-        <v>1.1428571428571428</v>
+        <v>0.91228070175438591</v>
       </c>
       <c r="AF39" s="149">
         <f t="shared" ca="1" si="67"/>
-        <v>7.0873737373737375</v>
+        <v>5.7549999999999999</v>
       </c>
       <c r="AG39" s="142">
-        <v>716</v>
+        <v>15.50</v>
       </c>
       <c r="AH39" s="142">
         <f t="shared" ca="1" si="68"/>
-        <v>-645.75000000000102</v>
+        <v>-5314.6800000000003</v>
       </c>
       <c r="AI39" s="142" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="AJ39" s="142"/>
     </row>
-    <row r="40" spans="1:36" ht="14.5">
-      <c r="A40" s="134">
-        <v>5</v>
-      </c>
-      <c r="B40" s="134" t="s">
-        <v>83</v>
-      </c>
-      <c r="C40" s="135">
-        <v>20</v>
-      </c>
-      <c r="D40" s="135">
-        <v>1332</v>
-      </c>
-      <c r="E40" s="136">
-        <f t="shared" si="59"/>
-        <v>26640</v>
-      </c>
-      <c r="F40" s="137">
-        <f t="shared" si="60"/>
-        <v>0.017264396718209271</v>
-      </c>
-      <c r="G40" s="150">
-        <v>543272</v>
-      </c>
-      <c r="H40" s="139">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""543272"")"),11.51)</f>
-        <v>11.51</v>
-      </c>
-      <c r="I40" s="136">
-        <f t="shared" ca="1" si="61"/>
-        <v>15331.32</v>
-      </c>
-      <c r="J40" s="136">
-        <f t="shared" ca="1" si="62"/>
-        <v>-11308.68</v>
-      </c>
-      <c r="K40" s="140">
-        <f t="shared" ca="1" si="63"/>
-        <v>-0.42449999999999999</v>
-      </c>
-      <c r="L40" s="141">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""marketcap"")/10^7"),16138.14228)</f>
-        <v>16138.14228</v>
-      </c>
-      <c r="M40" s="142">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""PE"")"),41.86)</f>
-        <v>41.859999999999999</v>
-      </c>
-      <c r="N40" s="142">
-        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("GOOGLEFINANCE(""524200"",""EPS"")"),37.26)</f>
-        <v>37.259999999999998</v>
-      </c>
-      <c r="O40" s="143">
-        <v>468</v>
-      </c>
-      <c r="P40" s="144">
-        <v>194</v>
-      </c>
-      <c r="Q40" s="145">
-        <v>0.42</v>
-      </c>
-      <c r="R40" s="143">
-        <v>104</v>
-      </c>
-      <c r="S40" s="145">
-        <v>0.22</v>
-      </c>
-      <c r="T40" s="144">
-        <v>114</v>
-      </c>
-      <c r="U40" s="144">
-        <v>161</v>
-      </c>
-      <c r="V40" s="144">
-        <v>165</v>
-      </c>
-      <c r="W40" s="144">
-        <v>0</v>
-      </c>
-      <c r="X40" s="143">
-        <v>2</v>
-      </c>
-      <c r="Y40" s="146">
-        <v>0.515</v>
-      </c>
-      <c r="Z40" s="146">
-        <v>0.4698</v>
-      </c>
-      <c r="AA40" s="146">
-        <v>0.24149999999999999</v>
-      </c>
-      <c r="AB40" s="145">
-        <v>0.50</v>
-      </c>
-      <c r="AC40" s="147">
-        <f t="shared" ca="1" si="64"/>
-        <v>34.48321</v>
-      </c>
-      <c r="AD40" s="148">
-        <f t="shared" si="65"/>
-        <v>1.7017543859649122</v>
-      </c>
-      <c r="AE40" s="148">
-        <f t="shared" si="66"/>
-        <v>0.91228070175438591</v>
-      </c>
-      <c r="AF40" s="149">
-        <f t="shared" ca="1" si="67"/>
-        <v>5.7549999999999999</v>
-      </c>
-      <c r="AG40" s="142">
-        <v>15.50</v>
-      </c>
-      <c r="AH40" s="142">
-        <f t="shared" ca="1" si="68"/>
-        <v>-5314.6800000000003</v>
-      </c>
-      <c r="AI40" s="142" t="s">
-        <v>54</v>
-      </c>
-      <c r="AJ40" s="142"/>
-    </row>
-    <row r="41" spans="8:34" ht="12.5">
+    <row r="40" spans="8:34" ht="12.5">
+      <c r="H40" s="131"/>
+      <c r="X40" s="133"/>
+      <c r="AH40" s="4">
+        <f ca="1">SUM(AH37:AH39)</f>
+        <v>-12969.630000000003</v>
+      </c>
+    </row>
+    <row r="41" spans="8:24" ht="12.5">
       <c r="H41" s="131"/>
       <c r="X41" s="133"/>
-      <c r="AH41" s="4">
-        <f ca="1">SUM(AH38:AH40)</f>
-        <v>-12969.630000000003</v>
-      </c>
     </row>
     <row r="42" spans="8:24" ht="12.5">
       <c r="H42" s="131"/>
@@ -9581,10 +9555,6 @@
     <row r="969" spans="8:24" ht="12.5">
       <c r="H969" s="131"/>
       <c r="X969" s="133"/>
-    </row>
-    <row r="970" spans="8:24" ht="12.5">
-      <c r="H970" s="131"/>
-      <c r="X970" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -9592,113 +9562,137 @@
     <mergeCell ref="Y1:AB1"/>
   </mergeCells>
   <conditionalFormatting sqref="J4:J8 J10:J15 J17:J19 J21:J24 J26:J28 J30:J34 J38:J40">
-    <cfRule type="cellIs" priority="36" dxfId="22" operator="greaterThan">
+    <cfRule type="cellIs" priority="54" dxfId="26" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="35" dxfId="23" operator="lessThan">
+    <cfRule type="cellIs" priority="53" dxfId="27" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M3:M34 M38:M40">
-    <cfRule type="cellIs" priority="34" dxfId="24" operator="greaterThan">
+    <cfRule type="cellIs" priority="52" dxfId="28" operator="greaterThan">
       <formula>100</formula>
     </cfRule>
-    <cfRule type="cellIs" priority="33" dxfId="25" operator="between">
+    <cfRule type="cellIs" priority="51" dxfId="29" operator="between">
       <formula>60</formula>
       <formula>100</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q3:Q34 Q38:Q40">
-    <cfRule type="cellIs" priority="32" dxfId="24" operator="lessThan">
+    <cfRule type="cellIs" priority="50" dxfId="28" operator="lessThan">
       <formula>"10%"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S3:S34 S38:S40">
-    <cfRule type="cellIs" priority="31" dxfId="24" operator="lessThan">
+    <cfRule type="cellIs" priority="49" dxfId="28" operator="lessThan">
       <formula>"2%"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T3:U34 T38:U40">
-    <cfRule type="cellIs" priority="30" dxfId="24" operator="lessThan">
+    <cfRule type="cellIs" priority="48" dxfId="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V3:V34 V38:V40">
-    <cfRule type="cellIs" priority="29" dxfId="25" operator="lessThan">
+    <cfRule type="cellIs" priority="47" dxfId="29" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC10:AC15 AC38:AC39">
-    <cfRule type="cellIs" priority="28" dxfId="24" operator="greaterThan">
+    <cfRule type="cellIs" priority="46" dxfId="28" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC17:AC19">
-    <cfRule type="cellIs" priority="27" dxfId="24" operator="greaterThan">
+    <cfRule type="cellIs" priority="45" dxfId="28" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC21:AC24">
-    <cfRule type="cellIs" priority="26" dxfId="24" operator="greaterThan">
+    <cfRule type="cellIs" priority="44" dxfId="28" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC26:AC34 AC40">
-    <cfRule type="cellIs" priority="25" dxfId="24" operator="greaterThan">
+    <cfRule type="cellIs" priority="43" dxfId="28" operator="greaterThan">
       <formula>4</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD3:AD34 AD38:AD40">
-    <cfRule type="cellIs" priority="24" dxfId="25" operator="lessThan">
+    <cfRule type="cellIs" priority="42" dxfId="29" operator="lessThan">
       <formula>"60%"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE3:AE34 AE38:AE40">
-    <cfRule type="cellIs" priority="23" dxfId="23" operator="lessThan">
+    <cfRule type="cellIs" priority="41" dxfId="27" operator="lessThan">
       <formula>"40%"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF10:AF15 AF38:AF39">
-    <cfRule type="cellIs" priority="22" dxfId="24" operator="greaterThan">
+    <cfRule type="cellIs" priority="40" dxfId="28" operator="greaterThan">
       <formula>10</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG3:AG34 AG38:AG40">
-    <cfRule type="containsText" priority="21" dxfId="23" operator="containsText" text="No">
+    <cfRule type="containsText" priority="39" dxfId="27" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",AG3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH3:AJ34 AH38:AJ40">
-    <cfRule type="containsText" priority="20" dxfId="24" operator="containsText" text="Must Exit">
+    <cfRule type="containsText" priority="38" dxfId="28" operator="containsText" text="Must Exit">
       <formula>NOT(ISERROR(SEARCH("Must Exit",AH3)))</formula>
     </cfRule>
-    <cfRule type="containsText" priority="19" dxfId="25" operator="containsText" text="Exit">
+    <cfRule type="containsText" priority="37" dxfId="29" operator="containsText" text="Exit">
       <formula>NOT(ISERROR(SEARCH("Exit",AH3)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="8">
-    <dataValidation type="custom" sqref="A3:A34">
+  <dataValidations count="16">
+    <dataValidation type="custom" sqref="A3:A7">
       <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="custom" sqref="C3:F34">
+    <dataValidation type="custom" sqref="A8:A33">
       <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="custom" sqref="H3:H34">
+    <dataValidation type="custom" sqref="C3:F7">
       <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="custom" sqref="K3:L34">
+    <dataValidation type="custom" sqref="C8:F33">
       <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="custom" sqref="O3:O34">
+    <dataValidation type="custom" sqref="H3:H7">
       <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="custom" sqref="R3:R34">
+    <dataValidation type="custom" sqref="H8:H33">
       <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="custom" sqref="X3:X34">
+    <dataValidation type="custom" sqref="K3:L7">
       <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
     </dataValidation>
-    <dataValidation type="custom" sqref="AC3:AF34">
+    <dataValidation type="custom" sqref="K8:L33">
+      <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" sqref="O3:O7">
+      <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" sqref="O8:O33">
+      <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" sqref="R3:R7">
+      <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" sqref="R8:R33">
+      <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" sqref="X3:X7">
+      <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" sqref="X8:X33">
+      <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" sqref="AC3:AF7">
+      <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
+    </dataValidation>
+    <dataValidation type="custom" sqref="AC8:AF33">
       <formula1>AND(ISNUMBER(A3),(NOT(OR(NOT(ISERROR(DATEVALUE(A3))),AND(ISNUMBER(A3),LEFT(CELL("format",A3))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
